--- a/DDAf_2025_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD9C996-9E53-4BB9-BA5D-A662049EEB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EC764C6-175F-4B56-AF99-341DF6C756DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{A39CE3A0-E5A4-4BB3-93AF-24CB8CB7EA89}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{F93D68ED-FE40-4377-A989-8F8C40D95B78}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="179">
   <si>
     <t>Table 22: Sustainable public investments and adjusted net savings</t>
   </si>
@@ -83,39 +83,42 @@
     <t>Adjusted net savings, including particulate emission damage (% of GDP), 2020</t>
   </si>
   <si>
+    <t>Adjusted net savings, excluding particulate emission damage (% of GDP), 2020</t>
+  </si>
+  <si>
     <t>AGO</t>
   </si>
   <si>
     <t>Angola*</t>
   </si>
   <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
     <t>..</t>
   </si>
   <si>
-    <t>BWA</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>SWZ</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>LSO</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>MWI</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
     <t>MOZ</t>
   </si>
   <si>
@@ -545,7 +548,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Adjusted net savings are calculated by taking net national savings (the difference of gross savings and consumption of fixed capital), adding education expenditure and subtracting energy depletion, mineral depletion, net forest depletion, carbon dioxide damage, and particulate emission damage.</t>
@@ -555,9 +558,6 @@
   </si>
   <si>
     <t>Source: World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks - 03/07/2025), UNESCO Global Education Monitoring Report 2024/25.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
@@ -1459,22 +1459,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705B5A16-688F-4CB6-B543-6B30941284A6}">
-  <dimension ref="A1:O113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AD289D-50DA-4DB7-9BE3-9AFB53FD86FD}">
+  <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="P1:Q1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="14.42578125" style="80" customWidth="1"/>
-    <col min="16" max="24" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="14.453125" style="80" customWidth="1"/>
+    <col min="17" max="24" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1491,8 +1489,9 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1538,13 +1537,16 @@
       <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="11">
         <v>2.8130039999999998</v>
@@ -1585,8 +1587,11 @@
       <c r="O3" s="13">
         <v>6.6580079999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="13">
+        <v>7.1739030000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -1632,8 +1637,11 @@
       <c r="O4" s="17">
         <v>8.2623859999999993</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="17">
+        <v>8.7832910000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -1641,25 +1649,25 @@
         <v>22</v>
       </c>
       <c r="C5" s="15">
-        <v>7.0732590000000002</v>
+        <v>6.8356839999999996</v>
       </c>
       <c r="D5" s="19">
-        <v>1.4582269999999999</v>
+        <v>1.4092480000000001</v>
       </c>
       <c r="E5" s="19">
-        <v>3.5355430000000001</v>
+        <v>3.4167920000000001</v>
       </c>
       <c r="F5" s="20">
-        <v>2.0794890000000001</v>
+        <v>2.0096440000000002</v>
       </c>
       <c r="G5" s="15">
-        <v>16.685282999999998</v>
+        <v>16.124860000000002</v>
       </c>
       <c r="H5" s="19">
-        <v>-1.056122</v>
+        <v>-1.0206500000000001</v>
       </c>
       <c r="I5" s="19">
-        <v>6.3543440000000002</v>
+        <v>6.1409149999999997</v>
       </c>
       <c r="J5" s="19">
         <v>1.9999999999999999E-6</v>
@@ -1668,19 +1676,22 @@
         <v>0</v>
       </c>
       <c r="L5" s="19">
-        <v>2.7322820000000001</v>
+        <v>2.6405110000000001</v>
       </c>
       <c r="M5" s="19">
-        <v>1.0239590000000001</v>
+        <v>0.98956699999999997</v>
       </c>
       <c r="N5" s="19">
-        <v>1.089013</v>
+        <v>1.052435</v>
       </c>
       <c r="O5" s="20">
-        <v>0.45296500000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.437751</v>
+      </c>
+      <c r="P5" s="20">
+        <v>1.490186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1726,8 +1737,11 @@
       <c r="O6" s="20">
         <v>6.930733</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="20">
+        <v>8.8373969999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -1750,7 +1764,7 @@
         <v>5.2746469999999999</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I7" s="19">
         <v>4.6823090000000001</v>
@@ -1771,15 +1785,18 @@
         <v>1.1611389999999999</v>
       </c>
       <c r="O7" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="15">
         <v>7.5417230000000002</v>
@@ -1820,13 +1837,16 @@
       <c r="O8" s="20">
         <v>-3.9488530000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="20">
+        <v>-2.8644590000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="21">
         <v>8.8875820000000001</v>
@@ -1867,13 +1887,16 @@
       <c r="O9" s="20">
         <v>10.727123000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="20">
+        <v>11.537143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="21">
         <v>9.0243780000000005</v>
@@ -1914,13 +1937,16 @@
       <c r="O10" s="20">
         <v>-2.492022</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="20">
+        <v>-2.0986859999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="15">
         <v>6.3067469999999997</v>
@@ -1961,105 +1987,114 @@
       <c r="O11" s="17">
         <v>21.787320000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="17">
+        <v>22.780619999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="23">
-        <v>2.9543550000000001</v>
+        <v>1.9870730000000001</v>
       </c>
       <c r="D12" s="24">
-        <v>1.644825</v>
+        <v>1.106295</v>
       </c>
       <c r="E12" s="24">
-        <v>0.65267900000000001</v>
+        <v>0.43898599999999999</v>
       </c>
       <c r="F12" s="25">
-        <v>0.65685099999999996</v>
+        <v>0.44179200000000002</v>
       </c>
       <c r="G12" s="23">
-        <v>7.3377140000000001</v>
+        <v>4.9352830000000001</v>
       </c>
       <c r="H12" s="24">
-        <v>5.8287570000000004</v>
+        <v>3.9203709999999998</v>
       </c>
       <c r="I12" s="24">
-        <v>1.4945200000000001</v>
+        <v>1.005201</v>
       </c>
       <c r="J12" s="24">
-        <v>6.1733000000000003E-2</v>
+        <v>4.1521000000000002E-2</v>
       </c>
       <c r="K12" s="24">
-        <v>1.341248</v>
+        <v>0.90211200000000002</v>
       </c>
       <c r="L12" s="24">
-        <v>1.812117</v>
+        <v>1.2188140000000001</v>
       </c>
       <c r="M12" s="24">
-        <v>1.653027</v>
+        <v>1.111812</v>
       </c>
       <c r="N12" s="24">
-        <v>1.317053</v>
+        <v>0.88583900000000004</v>
       </c>
       <c r="O12" s="25">
-        <v>1.1380980000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.76547500000000002</v>
+      </c>
+      <c r="P12" s="25">
+        <v>1.6513139999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="28">
-        <v>7.2000669999999998</v>
+        <v>7.0534679999999996</v>
       </c>
       <c r="D13" s="29">
-        <v>0.55574100000000004</v>
+        <v>0.54442599999999997</v>
       </c>
       <c r="E13" s="29">
-        <v>4.3335280000000003</v>
+        <v>4.2452940000000003</v>
       </c>
       <c r="F13" s="30">
-        <v>2.310797</v>
+        <v>2.2637480000000001</v>
       </c>
       <c r="G13" s="28">
-        <v>13.255715</v>
+        <v>12.985817000000001</v>
       </c>
       <c r="H13" s="29">
-        <v>4.7615499999999997</v>
+        <v>4.6623849999999996</v>
       </c>
       <c r="I13" s="29">
-        <v>5.0796679999999999</v>
+        <v>4.9762409999999999</v>
       </c>
       <c r="J13" s="29">
-        <v>2.9850780000000001</v>
+        <v>2.924299</v>
       </c>
       <c r="K13" s="29">
-        <v>0.92114300000000005</v>
+        <v>0.90238700000000005</v>
       </c>
       <c r="L13" s="29">
-        <v>0.37353900000000001</v>
+        <v>0.36593300000000001</v>
       </c>
       <c r="M13" s="29">
-        <v>3.6569310000000002</v>
+        <v>3.5824720000000001</v>
       </c>
       <c r="N13" s="29">
-        <v>0.54988700000000001</v>
+        <v>0.53869100000000003</v>
       </c>
       <c r="O13" s="30">
-        <v>1.3035270000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2763800000000001</v>
+      </c>
+      <c r="P13" s="30">
+        <v>1.8008420000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="21">
         <v>10.707801</v>
@@ -2077,7 +2112,7 @@
         <v>13.087857</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I14" s="19">
         <v>4.4631850000000002</v>
@@ -2098,15 +2133,18 @@
         <v>1.64652</v>
       </c>
       <c r="O14" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="21">
         <v>4.2443799999999996</v>
@@ -2147,107 +2185,116 @@
       <c r="O15" s="20">
         <v>-1.6906270000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="20">
+        <v>-0.30721500000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="21">
-        <v>8.9718990000000005</v>
+        <v>8.6425769999999993</v>
       </c>
       <c r="D16" s="19">
-        <v>3.2211560000000001</v>
+        <v>3.1029200000000001</v>
       </c>
       <c r="E16" s="19">
-        <v>1.2196530000000001</v>
+        <v>1.174884</v>
       </c>
       <c r="F16" s="20">
-        <v>4.531091</v>
+        <v>4.3647729999999996</v>
       </c>
       <c r="G16" s="21">
-        <v>20.114618</v>
+        <v>19.376291999999999</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I16" s="19">
-        <v>1.182795</v>
+        <v>1.1393789999999999</v>
       </c>
       <c r="J16" s="19">
         <v>0</v>
       </c>
       <c r="K16" s="19">
-        <v>0.13511000000000001</v>
+        <v>0.13014999999999999</v>
       </c>
       <c r="L16" s="19">
         <v>0</v>
       </c>
       <c r="M16" s="19">
-        <v>0.45865</v>
+        <v>0.44181500000000001</v>
       </c>
       <c r="N16" s="19">
-        <v>0.96210600000000002</v>
+        <v>0.92679100000000003</v>
       </c>
       <c r="O16" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="32">
-        <v>4.3458649999999999</v>
+        <v>4.3876660000000003</v>
       </c>
       <c r="D17" s="33">
-        <v>0.69865299999999997</v>
+        <v>0.70537300000000003</v>
       </c>
       <c r="E17" s="33">
-        <v>0.55088300000000001</v>
+        <v>0.55618199999999995</v>
       </c>
       <c r="F17" s="34">
-        <v>3.0963289999999999</v>
+        <v>3.126112</v>
       </c>
       <c r="G17" s="32">
-        <v>9.0872010000000003</v>
+        <v>9.1746079999999992</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I17" s="33">
-        <v>1.174534</v>
+        <v>1.185832</v>
       </c>
       <c r="J17" s="33">
-        <v>3.813526</v>
+        <v>3.8502070000000002</v>
       </c>
       <c r="K17" s="33">
         <v>0</v>
       </c>
       <c r="L17" s="33">
-        <v>2.8824369999999999</v>
+        <v>2.9101620000000001</v>
       </c>
       <c r="M17" s="33">
-        <v>0.65523399999999998</v>
+        <v>0.66153600000000001</v>
       </c>
       <c r="N17" s="33">
-        <v>2.287674</v>
+        <v>2.309679</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="32">
         <v>4.0119470000000002</v>
@@ -2288,60 +2335,66 @@
       <c r="O18" s="34">
         <v>-25.972047</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="34">
+        <v>-25.112926000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="15">
-        <v>3.9777960000000001</v>
+        <v>3.801634</v>
       </c>
       <c r="D19" s="16">
-        <v>1.4908939999999999</v>
+        <v>1.424868</v>
       </c>
       <c r="E19" s="16">
-        <v>0.63890999999999998</v>
+        <v>0.61061500000000002</v>
       </c>
       <c r="F19" s="17">
-        <v>1.847993</v>
+        <v>1.7661519999999999</v>
       </c>
       <c r="G19" s="15">
-        <v>4.3619630000000003</v>
+        <v>4.168787</v>
       </c>
       <c r="H19" s="16">
-        <v>17.664769</v>
+        <v>16.882459999999998</v>
       </c>
       <c r="I19" s="16">
-        <v>1.9699599999999999</v>
+        <v>1.8827179999999999</v>
       </c>
       <c r="J19" s="16">
-        <v>0.240588</v>
+        <v>0.229933</v>
       </c>
       <c r="K19" s="16">
-        <v>4.4439440000000001</v>
+        <v>4.2471379999999996</v>
       </c>
       <c r="L19" s="16">
-        <v>9.7554099999999995</v>
+        <v>9.3233789999999992</v>
       </c>
       <c r="M19" s="16">
-        <v>0.261965</v>
+        <v>0.250363</v>
       </c>
       <c r="N19" s="16">
-        <v>1.031792</v>
+        <v>0.98609800000000003</v>
       </c>
       <c r="O19" s="17">
-        <v>3.90103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.7282679999999999</v>
+      </c>
+      <c r="P19" s="17">
+        <v>4.7143649999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="32">
         <v>3.9900509999999998</v>
@@ -2359,7 +2412,7 @@
         <v>24.055541000000002</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I20" s="33">
         <v>0.75236499999999995</v>
@@ -2380,15 +2433,18 @@
         <v>0.53869299999999998</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P20" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="32">
         <v>3.4060839999999999</v>
@@ -2406,7 +2462,7 @@
         <v>20.352599999999999</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I21" s="33">
         <v>2.8885070000000002</v>
@@ -2427,15 +2483,18 @@
         <v>0.26987899999999998</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="P21" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="36">
         <v>7.3070199999999996</v>
@@ -2453,7 +2512,7 @@
         <v>20.755382000000001</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I22" s="37">
         <v>3.4938199999999999</v>
@@ -2474,60 +2533,66 @@
         <v>1.272492</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="P22" s="38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="28">
-        <v>4.3192550000000001</v>
+        <v>4.2608069999999998</v>
       </c>
       <c r="D23" s="29">
-        <v>0.96446900000000002</v>
+        <v>0.95141799999999999</v>
       </c>
       <c r="E23" s="29">
-        <v>0.88935399999999998</v>
+        <v>0.87731999999999999</v>
       </c>
       <c r="F23" s="30">
-        <v>2.4654310000000002</v>
+        <v>2.4320689999999998</v>
       </c>
       <c r="G23" s="28">
-        <v>11.677429</v>
+        <v>11.519412000000001</v>
       </c>
       <c r="H23" s="29">
-        <v>7.7763720000000003</v>
+        <v>7.6213410000000001</v>
       </c>
       <c r="I23" s="29">
-        <v>2.1568209999999999</v>
+        <v>2.1276350000000002</v>
       </c>
       <c r="J23" s="29">
-        <v>3.0704189999999998</v>
+        <v>3.02887</v>
       </c>
       <c r="K23" s="29">
-        <v>1.357416</v>
+        <v>1.339048</v>
       </c>
       <c r="L23" s="29">
-        <v>5.1434160000000002</v>
+        <v>5.0738159999999999</v>
       </c>
       <c r="M23" s="29">
-        <v>0.95108899999999996</v>
+        <v>0.93821900000000003</v>
       </c>
       <c r="N23" s="29">
-        <v>1.1734500000000001</v>
+        <v>1.1575709999999999</v>
       </c>
       <c r="O23" s="30">
-        <v>-1.8698520000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-1.8325750000000001</v>
+      </c>
+      <c r="P23" s="30">
+        <v>-0.683755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="40">
         <v>5.9071550000000004</v>
@@ -2568,13 +2633,16 @@
       <c r="O24" s="42">
         <v>1.4585429999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="42">
+        <v>2.5867309999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="21">
         <v>2.3525770000000001</v>
@@ -2615,60 +2683,66 @@
       <c r="O25" s="20">
         <v>6.8251390000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="20">
+        <v>8.846114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O26" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="21">
         <v>3.4809730000000001</v>
@@ -2709,60 +2783,66 @@
       <c r="O27" s="20">
         <v>17.012443000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="20">
+        <v>17.905616999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="21">
-        <v>4.4807360000000003</v>
+        <v>4.4803249999999997</v>
       </c>
       <c r="D28" s="19">
-        <v>0.76897400000000005</v>
+        <v>0.76890400000000003</v>
       </c>
       <c r="E28" s="19">
-        <v>2.2043119999999998</v>
+        <v>2.20411</v>
       </c>
       <c r="F28" s="20">
-        <v>1.50745</v>
+        <v>1.507312</v>
       </c>
       <c r="G28" s="21">
-        <v>11.70506</v>
+        <v>11.703987</v>
       </c>
       <c r="H28" s="19">
-        <v>3.346991</v>
+        <v>3.3466840000000002</v>
       </c>
       <c r="I28" s="19">
-        <v>4.7748819999999998</v>
+        <v>4.7744439999999999</v>
       </c>
       <c r="J28" s="19">
         <v>0</v>
       </c>
       <c r="K28" s="19">
-        <v>1.333E-3</v>
+        <v>1.3320000000000001E-3</v>
       </c>
       <c r="L28" s="19">
-        <v>1.263917</v>
+        <v>1.263801</v>
       </c>
       <c r="M28" s="19">
-        <v>0.94727799999999995</v>
+        <v>0.94719100000000001</v>
       </c>
       <c r="N28" s="19">
-        <v>1.016688</v>
+        <v>1.0165949999999999</v>
       </c>
       <c r="O28" s="20">
-        <v>4.892658</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.8922090000000003</v>
+      </c>
+      <c r="P28" s="20">
+        <v>5.9088039999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="21">
         <v>3.7231610000000002</v>
@@ -2803,13 +2883,16 @@
       <c r="O29" s="20">
         <v>-4.2024239999999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="20">
+        <v>-3.0757270000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="21">
         <v>6.0960609999999997</v>
@@ -2850,13 +2933,16 @@
       <c r="O30" s="20">
         <v>-3.3342139999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="20">
+        <v>-3.1620240000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" s="21">
         <v>7.4860709999999999</v>
@@ -2897,13 +2983,16 @@
       <c r="O31" s="20">
         <v>-4.1280640000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="20">
+        <v>-1.9982420000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="21">
         <v>6.025563</v>
@@ -2939,18 +3028,21 @@
         <v>1.723071</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O32" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P32" s="20">
+        <v>-2.4998629999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" s="21">
         <v>2.3975420000000001</v>
@@ -2968,7 +3060,7 @@
         <v>5.9932850000000002</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I33" s="19">
         <v>0.78631799999999996</v>
@@ -2989,15 +3081,18 @@
         <v>5.7303040000000003</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P33" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="32">
         <v>9.3178079999999994</v>
@@ -3012,13 +3107,13 @@
         <v>4.4674370000000003</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J34" s="33">
         <v>10.311214</v>
@@ -3033,65 +3128,71 @@
         <v>1.357969</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P34" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="21">
-        <v>2.944118</v>
+        <v>2.9441449999999998</v>
       </c>
       <c r="D35" s="19">
-        <v>0.20306099999999999</v>
+        <v>0.20306199999999999</v>
       </c>
       <c r="E35" s="19">
-        <v>1.0061899999999999</v>
+        <v>1.0061990000000001</v>
       </c>
       <c r="F35" s="20">
-        <v>1.7348680000000001</v>
+        <v>1.734883</v>
       </c>
       <c r="G35" s="21">
-        <v>5.6355130000000004</v>
+        <v>5.6355639999999996</v>
       </c>
       <c r="H35" s="19">
-        <v>17.843074999999999</v>
+        <v>17.843236000000001</v>
       </c>
       <c r="I35" s="19">
-        <v>1.58138</v>
+        <v>1.581394</v>
       </c>
       <c r="J35" s="19">
-        <v>0.177171</v>
+        <v>0.177173</v>
       </c>
       <c r="K35" s="19">
-        <v>2.2901859999999998</v>
+        <v>2.2902070000000001</v>
       </c>
       <c r="L35" s="19">
         <v>0</v>
       </c>
       <c r="M35" s="19">
-        <v>2.4922119999999999</v>
+        <v>2.4922339999999998</v>
       </c>
       <c r="N35" s="19">
-        <v>1.52261</v>
+        <v>1.5226230000000001</v>
       </c>
       <c r="O35" s="20">
-        <v>12.942276</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>12.942392999999999</v>
+      </c>
+      <c r="P35" s="20">
+        <v>14.465016</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="21">
         <v>3.0519720000000001</v>
@@ -3132,34 +3233,37 @@
       <c r="O36" s="20">
         <v>24.770817999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P36" s="20">
+        <v>26.136343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="23">
-        <v>5.2488539999999997</v>
+        <v>5.2489660000000002</v>
       </c>
       <c r="D37" s="24">
-        <v>2.414485</v>
+        <v>2.4145370000000002</v>
       </c>
       <c r="E37" s="24">
-        <v>1.193397</v>
+        <v>1.193422</v>
       </c>
       <c r="F37" s="25">
-        <v>1.6409720000000001</v>
+        <v>1.6410070000000001</v>
       </c>
       <c r="G37" s="23">
-        <v>5.9428239999999999</v>
+        <v>5.9429499999999997</v>
       </c>
       <c r="H37" s="24">
-        <v>6.6366440000000004</v>
+        <v>6.6367849999999997</v>
       </c>
       <c r="I37" s="24">
-        <v>1.510221</v>
+        <v>1.5102530000000001</v>
       </c>
       <c r="J37" s="24">
         <v>0</v>
@@ -3168,69 +3272,75 @@
         <v>0</v>
       </c>
       <c r="L37" s="24">
-        <v>7.5058740000000004</v>
+        <v>7.5060330000000004</v>
       </c>
       <c r="M37" s="24">
-        <v>0.68449700000000002</v>
+        <v>0.68451200000000001</v>
       </c>
       <c r="N37" s="24">
-        <v>0.96508700000000003</v>
+        <v>0.96510700000000005</v>
       </c>
       <c r="O37" s="25">
-        <v>-1.0085930000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>-1.0086139999999999</v>
+      </c>
+      <c r="P37" s="25">
+        <v>-4.3506999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="28">
-        <v>3.9026209999999999</v>
+        <v>3.9025590000000001</v>
       </c>
       <c r="D38" s="29">
-        <v>1.108663</v>
+        <v>1.108646</v>
       </c>
       <c r="E38" s="29">
-        <v>1.324732</v>
+        <v>1.324711</v>
       </c>
       <c r="F38" s="30">
-        <v>1.4692259999999999</v>
+        <v>1.469203</v>
       </c>
       <c r="G38" s="28">
-        <v>8.7840910000000001</v>
+        <v>8.7839500000000008</v>
       </c>
       <c r="H38" s="29">
-        <v>13.698444</v>
+        <v>13.698219999999999</v>
       </c>
       <c r="I38" s="29">
-        <v>3.177333</v>
+        <v>3.1772819999999999</v>
       </c>
       <c r="J38" s="29">
-        <v>0.12432699999999999</v>
+        <v>0.124325</v>
       </c>
       <c r="K38" s="29">
-        <v>0.54335199999999995</v>
+        <v>0.54334300000000002</v>
       </c>
       <c r="L38" s="29">
-        <v>2.983295</v>
+        <v>2.9832480000000001</v>
       </c>
       <c r="M38" s="29">
-        <v>1.1472739999999999</v>
+        <v>1.1472560000000001</v>
       </c>
       <c r="N38" s="29">
-        <v>1.2390589999999999</v>
+        <v>1.239039</v>
       </c>
       <c r="O38" s="30">
-        <v>11.205517</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>11.205333</v>
+      </c>
+      <c r="P38" s="30">
+        <v>12.309607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="44">
         <v>5.641724</v>
@@ -3271,13 +3381,16 @@
       <c r="O39" s="46">
         <v>11.985773</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="46">
+        <v>12.313487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C40" s="21">
         <v>4.239509</v>
@@ -3318,13 +3431,16 @@
       <c r="O40" s="20">
         <v>3.4712170000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="20">
+        <v>4.0924120000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" s="32">
         <v>7.100867</v>
@@ -3365,13 +3481,16 @@
       <c r="O41" s="34">
         <v>-29.356995000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="34">
+        <v>-28.728460999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="32">
         <v>2.9295879999999999</v>
@@ -3412,13 +3531,16 @@
       <c r="O42" s="34">
         <v>27.533159000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" s="34">
+        <v>28.462758999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C43" s="21">
         <v>5.5907879999999999</v>
@@ -3459,13 +3581,16 @@
       <c r="O43" s="20">
         <v>20.001144</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P43" s="20">
+        <v>20.574611999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="36">
         <v>7.0575999999999999</v>
@@ -3506,11 +3631,14 @@
       <c r="O44" s="38">
         <v>-3.9730949999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P44" s="38">
+        <v>-3.6387990000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C45" s="28">
         <v>4.8774009999999999</v>
@@ -3551,13 +3679,16 @@
       <c r="O45" s="30">
         <v>5.8380109999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="30">
+        <v>6.3830980000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C46" s="40">
         <v>2.714534</v>
@@ -3598,13 +3729,16 @@
       <c r="O46" s="42">
         <v>9.3011879999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" s="42">
+        <v>11.527846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="21">
         <v>6.5369739999999998</v>
@@ -3622,7 +3756,7 @@
         <v>7.8374090000000001</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I47" s="19">
         <v>4.0266599999999997</v>
@@ -3643,62 +3777,68 @@
         <v>2.3126709999999999</v>
       </c>
       <c r="O47" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P47" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" s="32">
-        <v>6.6192630000000001</v>
+        <v>6.6234799999999998</v>
       </c>
       <c r="D48" s="33">
-        <v>0.42383300000000002</v>
+        <v>0.42410300000000001</v>
       </c>
       <c r="E48" s="33">
-        <v>4.3869790000000002</v>
+        <v>4.3897729999999999</v>
       </c>
       <c r="F48" s="34">
-        <v>1.808451</v>
+        <v>1.8096030000000001</v>
       </c>
       <c r="G48" s="32">
-        <v>10.367898</v>
+        <v>10.374503000000001</v>
       </c>
       <c r="H48" s="33">
-        <v>21.051615999999999</v>
+        <v>21.065026</v>
       </c>
       <c r="I48" s="33">
-        <v>4.7356210000000001</v>
+        <v>4.7386379999999999</v>
       </c>
       <c r="J48" s="33">
-        <v>0.30912600000000001</v>
+        <v>0.30932300000000001</v>
       </c>
       <c r="K48" s="33">
         <v>0</v>
       </c>
       <c r="L48" s="33">
-        <v>0.29623500000000003</v>
+        <v>0.29642299999999999</v>
       </c>
       <c r="M48" s="33">
-        <v>1.26844</v>
+        <v>1.2692479999999999</v>
       </c>
       <c r="N48" s="33">
-        <v>0.43347999999999998</v>
+        <v>0.43375599999999997</v>
       </c>
       <c r="O48" s="34">
-        <v>23.479956000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>23.494914000000001</v>
+      </c>
+      <c r="P48" s="34">
+        <v>23.92867</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" s="21">
         <v>3.618045</v>
@@ -3739,13 +3879,16 @@
       <c r="O49" s="20">
         <v>17.916651999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="20">
+        <v>18.907375999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="21">
         <v>3.7339199999999999</v>
@@ -3786,13 +3929,16 @@
       <c r="O50" s="20">
         <v>7.3578039999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="20">
+        <v>8.3224909999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" s="15">
         <v>4.4353800000000003</v>
@@ -3833,13 +3979,16 @@
       <c r="O51" s="17">
         <v>14.030566</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="17">
+        <v>14.732222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="21">
         <v>3.9009520000000002</v>
@@ -3880,13 +4029,16 @@
       <c r="O52" s="20">
         <v>-13.098072999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" s="20">
+        <v>-11.400801</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" s="21">
         <v>9.0163539999999998</v>
@@ -3927,13 +4079,16 @@
       <c r="O53" s="20">
         <v>-3.532073</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" s="20">
+        <v>-1.799779</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" s="21">
         <v>12.904173999999999</v>
@@ -3951,7 +4106,7 @@
         <v>21.982938000000001</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I54" s="19">
         <v>3.4801790000000001</v>
@@ -3972,15 +4127,18 @@
         <v>0.91885499999999998</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P54" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" s="21">
         <v>3.501169</v>
@@ -4021,13 +4179,16 @@
       <c r="O55" s="20">
         <v>3.2327819999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" s="20">
+        <v>5.6017710000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C56" s="21">
         <v>6.1611630000000002</v>
@@ -4068,60 +4229,66 @@
       <c r="O56" s="20">
         <v>9.2134239999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" s="20">
+        <v>11.698155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" s="21">
-        <v>3.3618649999999999</v>
+        <v>2.4273750000000001</v>
       </c>
       <c r="D57" s="19">
-        <v>0.32218000000000002</v>
+        <v>0.232625</v>
       </c>
       <c r="E57" s="19">
-        <v>0.50316899999999998</v>
+        <v>0.36330499999999999</v>
       </c>
       <c r="F57" s="20">
-        <v>2.5365150000000001</v>
+        <v>1.8314459999999999</v>
       </c>
       <c r="G57" s="21">
-        <v>10.742559</v>
+        <v>7.7564729999999997</v>
       </c>
       <c r="H57" s="19">
-        <v>17.847816999999999</v>
+        <v>12.886697</v>
       </c>
       <c r="I57" s="19">
-        <v>0.81879800000000003</v>
+        <v>0.591198</v>
       </c>
       <c r="J57" s="19">
-        <v>1.5292699999999999</v>
+        <v>1.104182</v>
       </c>
       <c r="K57" s="19">
-        <v>4.1980000000000003E-3</v>
+        <v>3.0309999999999998E-3</v>
       </c>
       <c r="L57" s="19">
         <v>0</v>
       </c>
       <c r="M57" s="19">
-        <v>1.099602</v>
+        <v>0.79394799999999999</v>
       </c>
       <c r="N57" s="19">
-        <v>2.1682190000000001</v>
+        <v>1.5655239999999999</v>
       </c>
       <c r="O57" s="20">
-        <v>13.865325</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.01121</v>
+      </c>
+      <c r="P57" s="20">
+        <v>11.576734</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" s="21">
         <v>5.143751</v>
@@ -4139,7 +4306,7 @@
         <v>9.7340280000000003</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I58" s="19">
         <v>4.8599800000000002</v>
@@ -4160,15 +4327,18 @@
         <v>1.092543</v>
       </c>
       <c r="O58" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P58" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C59" s="21">
         <v>5.6706510000000003</v>
@@ -4209,13 +4379,16 @@
       <c r="O59" s="20">
         <v>-5.758597</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P59" s="20">
+        <v>-4.3133030000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" s="23">
         <v>6.1803439999999998</v>
@@ -4256,596 +4429,638 @@
       <c r="O60" s="25">
         <v>12.571763000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P60" s="25">
+        <v>14.755407999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" s="28">
-        <v>3.8208760000000002</v>
+        <v>3.0852029999999999</v>
       </c>
       <c r="D61" s="29">
-        <v>0.48957099999999998</v>
+        <v>0.39530900000000002</v>
       </c>
       <c r="E61" s="29">
-        <v>0.98579300000000003</v>
+        <v>0.79598800000000003</v>
       </c>
       <c r="F61" s="30">
-        <v>2.3455119999999998</v>
+        <v>1.8939060000000001</v>
       </c>
       <c r="G61" s="28">
-        <v>9.4362449999999995</v>
+        <v>7.6193869999999997</v>
       </c>
       <c r="H61" s="29">
-        <v>16.397341999999998</v>
+        <v>13.061852</v>
       </c>
       <c r="I61" s="29">
-        <v>1.9044669999999999</v>
+        <v>1.5377799999999999</v>
       </c>
       <c r="J61" s="29">
-        <v>1.131321</v>
+        <v>0.91349599999999997</v>
       </c>
       <c r="K61" s="29">
-        <v>0.53188500000000005</v>
+        <v>0.42947600000000002</v>
       </c>
       <c r="L61" s="29">
-        <v>0.77473000000000003</v>
+        <v>0.62556400000000001</v>
       </c>
       <c r="M61" s="29">
-        <v>1.135243</v>
+        <v>0.91666300000000001</v>
       </c>
       <c r="N61" s="29">
-        <v>1.8599760000000001</v>
+        <v>1.5018549999999999</v>
       </c>
       <c r="O61" s="30">
-        <v>12.743072</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>10.150921</v>
+      </c>
+      <c r="P61" s="30">
+        <v>11.647636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" s="50">
-        <v>4.8372679999999999</v>
+        <v>4.5482630000000004</v>
       </c>
       <c r="D62" s="51">
-        <v>0.45772499999999999</v>
+        <v>0.43037799999999998</v>
       </c>
       <c r="E62" s="51">
-        <v>2.0423930000000001</v>
+        <v>1.920369</v>
       </c>
       <c r="F62" s="52">
-        <v>2.337151</v>
+        <v>2.1975159999999998</v>
       </c>
       <c r="G62" s="50">
-        <v>9.207668</v>
+        <v>8.6569520000000004</v>
       </c>
       <c r="H62" s="51">
-        <v>10.359399</v>
+        <v>9.7162279999999992</v>
       </c>
       <c r="I62" s="51">
-        <v>3.5094660000000002</v>
+        <v>3.2995619999999999</v>
       </c>
       <c r="J62" s="51">
-        <v>1.936677</v>
+        <v>1.8209690000000001</v>
       </c>
       <c r="K62" s="51">
-        <v>0.44890200000000002</v>
+        <v>0.42208200000000001</v>
       </c>
       <c r="L62" s="51">
-        <v>1.0167580000000001</v>
+        <v>0.95601100000000006</v>
       </c>
       <c r="M62" s="51">
-        <v>2.281107</v>
+        <v>2.1448209999999999</v>
       </c>
       <c r="N62" s="51">
-        <v>1.0129619999999999</v>
+        <v>0.95235300000000001</v>
       </c>
       <c r="O62" s="52">
-        <v>7.2898490000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.837072</v>
+      </c>
+      <c r="P62" s="52">
+        <v>7.7557210000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" s="50">
-        <v>9.1981040000000007</v>
+        <v>9.1810449999999992</v>
       </c>
       <c r="D63" s="51">
-        <v>1.7906999999999999E-2</v>
+        <v>1.7673999999999999E-2</v>
       </c>
       <c r="E63" s="51">
-        <v>5.7838950000000002</v>
+        <v>5.774432</v>
       </c>
       <c r="F63" s="52">
-        <v>3.3994420000000001</v>
+        <v>3.3920400000000002</v>
       </c>
       <c r="G63" s="50">
-        <v>18.258438000000002</v>
+        <v>18.224308000000001</v>
       </c>
       <c r="H63" s="51">
-        <v>9.1880009999999999</v>
+        <v>9.1778729999999999</v>
       </c>
       <c r="I63" s="51">
-        <v>3.6268189999999998</v>
+        <v>3.6197050000000002</v>
       </c>
       <c r="J63" s="51">
-        <v>0.61581900000000001</v>
+        <v>0.61414599999999997</v>
       </c>
       <c r="K63" s="51">
-        <v>0.17743700000000001</v>
+        <v>0.177037</v>
       </c>
       <c r="L63" s="51">
-        <v>4.5488000000000001E-2</v>
+        <v>4.4195999999999999E-2</v>
       </c>
       <c r="M63" s="51">
-        <v>2.0535510000000001</v>
+        <v>2.0488780000000002</v>
       </c>
       <c r="N63" s="51">
-        <v>0.32534800000000003</v>
+        <v>0.32427600000000001</v>
       </c>
       <c r="O63" s="52">
-        <v>10.033429999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.022059</v>
+      </c>
+      <c r="P63" s="52">
+        <v>10.349525999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C64" s="55">
-        <v>8.354533</v>
+        <v>8.3462399999999999</v>
       </c>
       <c r="D64" s="56">
-        <v>2.4667999999999999E-2</v>
+        <v>2.4621000000000001E-2</v>
       </c>
       <c r="E64" s="56">
-        <v>4.4463780000000002</v>
+        <v>4.4420130000000002</v>
       </c>
       <c r="F64" s="57">
-        <v>3.8854060000000001</v>
+        <v>3.8815200000000001</v>
       </c>
       <c r="G64" s="55">
-        <v>15.767726</v>
+        <v>15.752321</v>
       </c>
       <c r="H64" s="56">
-        <v>2.6211060000000002</v>
+        <v>2.617826</v>
       </c>
       <c r="I64" s="56">
-        <v>4.7122400000000004</v>
+        <v>4.7074550000000004</v>
       </c>
       <c r="J64" s="56">
-        <v>0.80075799999999997</v>
+        <v>0.79999399999999998</v>
       </c>
       <c r="K64" s="56">
-        <v>0.436699</v>
+        <v>0.436282</v>
       </c>
       <c r="L64" s="56">
-        <v>3.5529999999999999E-2</v>
+        <v>3.5496E-2</v>
       </c>
       <c r="M64" s="56">
-        <v>1.484459</v>
+        <v>1.483006</v>
       </c>
       <c r="N64" s="56">
-        <v>0.19930400000000001</v>
+        <v>0.19908699999999999</v>
       </c>
       <c r="O64" s="57">
-        <v>4.5546860000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.549347</v>
+      </c>
+      <c r="P64" s="57">
+        <v>4.7482540000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C65" s="59">
-        <v>4.8253459999999997</v>
+        <v>4.8132320000000002</v>
       </c>
       <c r="D65" s="60">
-        <v>3.1150000000000001E-2</v>
+        <v>3.0671E-2</v>
       </c>
       <c r="E65" s="60">
-        <v>2.4153419999999999</v>
+        <v>2.411689</v>
       </c>
       <c r="F65" s="61">
-        <v>2.3788830000000001</v>
+        <v>2.3709009999999999</v>
       </c>
       <c r="G65" s="59">
-        <v>19.946521000000001</v>
+        <v>19.911092</v>
       </c>
       <c r="H65" s="60">
-        <v>16.077867999999999</v>
+        <v>16.077867000000001</v>
       </c>
       <c r="I65" s="60">
-        <v>2.3648729999999998</v>
+        <v>2.359089</v>
       </c>
       <c r="J65" s="60">
-        <v>0.60925200000000002</v>
+        <v>0.60673299999999997</v>
       </c>
       <c r="K65" s="60">
-        <v>0.22340399999999999</v>
+        <v>0.22286600000000001</v>
       </c>
       <c r="L65" s="60">
-        <v>9.7958000000000003E-2</v>
+        <v>9.4704999999999998E-2</v>
       </c>
       <c r="M65" s="60">
-        <v>3.247633</v>
+        <v>3.2406419999999998</v>
       </c>
       <c r="N65" s="60">
-        <v>0.68856399999999995</v>
+        <v>0.68625100000000006</v>
       </c>
       <c r="O65" s="61">
-        <v>13.958772</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13.958771</v>
+      </c>
+      <c r="P65" s="61">
+        <v>14.647376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C66" s="63">
-        <v>8.9621399999999998</v>
+        <v>8.9157410000000006</v>
       </c>
       <c r="D66" s="64">
-        <v>4.6440000000000002E-2</v>
+        <v>4.5992999999999999E-2</v>
       </c>
       <c r="E66" s="64">
-        <v>5.5814430000000002</v>
+        <v>5.5537219999999996</v>
       </c>
       <c r="F66" s="65">
-        <v>3.3419620000000001</v>
+        <v>3.3236340000000002</v>
       </c>
       <c r="G66" s="63">
-        <v>17.768027</v>
+        <v>17.675713999999999</v>
       </c>
       <c r="H66" s="64">
-        <v>9.2503770000000003</v>
+        <v>9.2082990000000002</v>
       </c>
       <c r="I66" s="64">
-        <v>3.6204480000000001</v>
+        <v>3.6013130000000002</v>
       </c>
       <c r="J66" s="64">
-        <v>0.68732499999999996</v>
+        <v>0.68328999999999995</v>
       </c>
       <c r="K66" s="64">
-        <v>0.192133</v>
+        <v>0.19107499999999999</v>
       </c>
       <c r="L66" s="64">
-        <v>9.9340999999999999E-2</v>
+        <v>9.7694000000000003E-2</v>
       </c>
       <c r="M66" s="64">
-        <v>2.0658699999999999</v>
+        <v>2.0543740000000001</v>
       </c>
       <c r="N66" s="64">
-        <v>0.362595</v>
+        <v>0.36028199999999999</v>
       </c>
       <c r="O66" s="65">
-        <v>9.8836969999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.8375889999999995</v>
+      </c>
+      <c r="P66" s="65">
+        <v>10.19924</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" s="59">
-        <v>4.4331339999999999</v>
+        <v>4.3883619999999999</v>
       </c>
       <c r="D67" s="60">
-        <v>0.53730100000000003</v>
+        <v>0.53187499999999999</v>
       </c>
       <c r="E67" s="60">
-        <v>1.629138</v>
+        <v>1.6126849999999999</v>
       </c>
       <c r="F67" s="61">
-        <v>2.2666940000000002</v>
+        <v>2.2438020000000001</v>
       </c>
       <c r="G67" s="59">
-        <v>7.2688560000000004</v>
+        <v>7.1954450000000003</v>
       </c>
       <c r="H67" s="60">
-        <v>6.6443240000000001</v>
+        <v>6.5758479999999997</v>
       </c>
       <c r="I67" s="60">
-        <v>3.682849</v>
+        <v>3.6456550000000001</v>
       </c>
       <c r="J67" s="60">
-        <v>1.1447719999999999</v>
+        <v>1.133211</v>
       </c>
       <c r="K67" s="60">
-        <v>0.434305</v>
+        <v>0.429919</v>
       </c>
       <c r="L67" s="60">
-        <v>1.6467080000000001</v>
+        <v>1.6300779999999999</v>
       </c>
       <c r="M67" s="60">
-        <v>2.1710289999999999</v>
+        <v>2.1491030000000002</v>
       </c>
       <c r="N67" s="60">
-        <v>0.83733199999999997</v>
+        <v>0.82886800000000005</v>
       </c>
       <c r="O67" s="61">
-        <v>4.205444</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.1620600000000003</v>
+      </c>
+      <c r="P67" s="61">
+        <v>4.9396800000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C68" s="59">
-        <v>4.2032689999999997</v>
+        <v>3.8131059999999999</v>
       </c>
       <c r="D68" s="60">
-        <v>0.26028899999999999</v>
+        <v>0.236128</v>
       </c>
       <c r="E68" s="60">
-        <v>1.4083680000000001</v>
+        <v>1.2776380000000001</v>
       </c>
       <c r="F68" s="61">
-        <v>2.5346120000000001</v>
+        <v>2.2993399999999999</v>
       </c>
       <c r="G68" s="59">
-        <v>7.890301</v>
+        <v>7.1578929999999996</v>
       </c>
       <c r="H68" s="60">
-        <v>10.436745999999999</v>
+        <v>9.4291319999999992</v>
       </c>
       <c r="I68" s="60">
-        <v>3.075081</v>
+        <v>2.7896399999999999</v>
       </c>
       <c r="J68" s="60">
-        <v>1.3470679999999999</v>
+        <v>1.2220279999999999</v>
       </c>
       <c r="K68" s="60">
-        <v>0.34018100000000001</v>
+        <v>0.30860399999999999</v>
       </c>
       <c r="L68" s="60">
-        <v>0.43767099999999998</v>
+        <v>0.39704499999999998</v>
       </c>
       <c r="M68" s="60">
-        <v>2.0187010000000001</v>
+        <v>1.831318</v>
       </c>
       <c r="N68" s="60">
-        <v>1.229206</v>
+        <v>1.1151070000000001</v>
       </c>
       <c r="O68" s="61">
-        <v>8.2195730000000005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.4260159999999997</v>
+      </c>
+      <c r="P68" s="61">
+        <v>8.4939839999999993</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C69" s="59">
-        <v>4.4218120000000001</v>
+        <v>4.3898659999999996</v>
       </c>
       <c r="D69" s="60">
-        <v>1.4725710000000001</v>
+        <v>1.4619329999999999</v>
       </c>
       <c r="E69" s="60">
-        <v>1.460459</v>
+        <v>1.449908</v>
       </c>
       <c r="F69" s="61">
-        <v>1.488782</v>
+        <v>1.4780260000000001</v>
       </c>
       <c r="G69" s="59">
-        <v>9.1507129999999997</v>
+        <v>9.0837950000000003</v>
       </c>
       <c r="H69" s="60">
-        <v>11.696439</v>
+        <v>11.609686</v>
       </c>
       <c r="I69" s="60">
-        <v>3.4092500000000001</v>
+        <v>3.3843190000000001</v>
       </c>
       <c r="J69" s="60">
-        <v>0.19300100000000001</v>
+        <v>0.191606</v>
       </c>
       <c r="K69" s="60">
-        <v>0.93210700000000002</v>
+        <v>0.925373</v>
       </c>
       <c r="L69" s="60">
-        <v>3.5523009999999999</v>
+        <v>3.526637</v>
       </c>
       <c r="M69" s="60">
-        <v>0.759857</v>
+        <v>0.75436800000000004</v>
       </c>
       <c r="N69" s="60">
-        <v>1.1598090000000001</v>
+        <v>1.151327</v>
       </c>
       <c r="O69" s="61">
-        <v>8.7375959999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.6727889999999999</v>
+      </c>
+      <c r="P69" s="61">
+        <v>9.8170549999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="59">
-        <v>3.862177</v>
+        <v>3.8329759999999999</v>
       </c>
       <c r="D70" s="60">
-        <v>0.71873100000000001</v>
+        <v>0.71329699999999996</v>
       </c>
       <c r="E70" s="60">
-        <v>1.2145699999999999</v>
+        <v>1.2053879999999999</v>
       </c>
       <c r="F70" s="61">
-        <v>1.9288749999999999</v>
+        <v>1.9142920000000001</v>
       </c>
       <c r="G70" s="59">
-        <v>9.5880379999999992</v>
+        <v>9.5155469999999998</v>
       </c>
       <c r="H70" s="60">
-        <v>12.345962999999999</v>
+        <v>12.230399</v>
       </c>
       <c r="I70" s="60">
-        <v>2.366892</v>
+        <v>2.3489969999999998</v>
       </c>
       <c r="J70" s="60">
-        <v>6.2990459999999997</v>
+        <v>6.2514219999999998</v>
       </c>
       <c r="K70" s="60">
-        <v>0.75385899999999995</v>
+        <v>0.74816000000000005</v>
       </c>
       <c r="L70" s="60">
-        <v>3.2893479999999999</v>
+        <v>3.2644790000000001</v>
       </c>
       <c r="M70" s="60">
-        <v>1.150134</v>
+        <v>1.141438</v>
       </c>
       <c r="N70" s="60">
-        <v>0.95452199999999998</v>
+        <v>0.94730499999999995</v>
       </c>
       <c r="O70" s="61">
-        <v>2.1055760000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.0858669999999999</v>
+      </c>
+      <c r="P70" s="61">
+        <v>2.9865590000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C71" s="59">
-        <v>3.8208760000000002</v>
+        <v>3.0852029999999999</v>
       </c>
       <c r="D71" s="60">
-        <v>0.48957099999999998</v>
+        <v>0.39530900000000002</v>
       </c>
       <c r="E71" s="60">
-        <v>0.98579300000000003</v>
+        <v>0.79598800000000003</v>
       </c>
       <c r="F71" s="61">
-        <v>2.3455119999999998</v>
+        <v>1.8939060000000001</v>
       </c>
       <c r="G71" s="59">
-        <v>9.4362449999999995</v>
+        <v>7.6193869999999997</v>
       </c>
       <c r="H71" s="60">
-        <v>16.397341999999998</v>
+        <v>13.061852</v>
       </c>
       <c r="I71" s="60">
-        <v>1.9044669999999999</v>
+        <v>1.5377799999999999</v>
       </c>
       <c r="J71" s="60">
-        <v>1.131321</v>
+        <v>0.91349599999999997</v>
       </c>
       <c r="K71" s="60">
-        <v>0.53188500000000005</v>
+        <v>0.42947600000000002</v>
       </c>
       <c r="L71" s="60">
-        <v>0.77473000000000003</v>
+        <v>0.62556400000000001</v>
       </c>
       <c r="M71" s="60">
-        <v>1.135243</v>
+        <v>0.91666300000000001</v>
       </c>
       <c r="N71" s="60">
-        <v>1.8599760000000001</v>
+        <v>1.5018549999999999</v>
       </c>
       <c r="O71" s="61">
-        <v>12.743072</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.150921</v>
+      </c>
+      <c r="P71" s="61">
+        <v>11.647636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C72" s="59">
-        <v>3.889745</v>
+        <v>3.8896630000000001</v>
       </c>
       <c r="D72" s="60">
-        <v>1.031269</v>
+        <v>1.031247</v>
       </c>
       <c r="E72" s="60">
-        <v>1.335445</v>
+        <v>1.3354170000000001</v>
       </c>
       <c r="F72" s="61">
-        <v>1.523031</v>
+        <v>1.522999</v>
       </c>
       <c r="G72" s="59">
-        <v>8.4657970000000002</v>
+        <v>8.4656160000000007</v>
       </c>
       <c r="H72" s="60">
-        <v>13.205743</v>
+        <v>13.205453</v>
       </c>
       <c r="I72" s="60">
-        <v>3.0974620000000002</v>
+        <v>3.0973959999999998</v>
       </c>
       <c r="J72" s="60">
-        <v>0.13974200000000001</v>
+        <v>0.139739</v>
       </c>
       <c r="K72" s="60">
-        <v>0.53337800000000002</v>
+        <v>0.53336600000000001</v>
       </c>
       <c r="L72" s="60">
-        <v>3.5584180000000001</v>
+        <v>3.5583429999999998</v>
       </c>
       <c r="M72" s="60">
-        <v>1.2186650000000001</v>
+        <v>1.2186399999999999</v>
       </c>
       <c r="N72" s="60">
-        <v>1.2205490000000001</v>
+        <v>1.220523</v>
       </c>
       <c r="O72" s="61">
-        <v>10.044814000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.044594</v>
+      </c>
+      <c r="P72" s="61">
+        <v>11.137214999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C73" s="59">
-        <v>6.4096820000000001</v>
+        <v>6.2888339999999996</v>
       </c>
       <c r="D73" s="60">
-        <v>0.71792100000000003</v>
+        <v>0.70438599999999996</v>
       </c>
       <c r="E73" s="60">
-        <v>3.5782379999999998</v>
+        <v>3.5107740000000001</v>
       </c>
       <c r="F73" s="61">
-        <v>2.1135229999999998</v>
+        <v>2.0736750000000002</v>
       </c>
       <c r="G73" s="59">
-        <v>12.060197000000001</v>
+        <v>11.832815</v>
       </c>
       <c r="H73" s="60">
-        <v>7.5759759999999998</v>
+        <v>7.4306140000000003</v>
       </c>
       <c r="I73" s="60">
-        <v>4.6262629999999998</v>
+        <v>4.53904</v>
       </c>
       <c r="J73" s="60">
-        <v>2.3464719999999999</v>
+        <v>2.3022320000000001</v>
       </c>
       <c r="K73" s="60">
-        <v>1.1112519999999999</v>
+        <v>1.0903</v>
       </c>
       <c r="L73" s="60">
-        <v>1.087161</v>
+        <v>1.0666640000000001</v>
       </c>
       <c r="M73" s="60">
-        <v>3.0090140000000001</v>
+        <v>2.952283</v>
       </c>
       <c r="N73" s="60">
-        <v>0.68314200000000003</v>
+        <v>0.67023900000000003</v>
       </c>
       <c r="O73" s="61">
-        <v>3.9353379999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.8596910000000002</v>
+      </c>
+      <c r="P73" s="61">
+        <v>4.5083869999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C74" s="59">
         <v>5.8512050000000002</v>
@@ -4886,167 +5101,179 @@
       <c r="O74" s="61">
         <v>9.4511540000000007</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P74" s="61">
+        <v>9.8800539999999994</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C75" s="66">
-        <v>3.608924</v>
+        <v>3.608949</v>
       </c>
       <c r="D75" s="67">
-        <v>0.71881200000000001</v>
+        <v>0.71881700000000004</v>
       </c>
       <c r="E75" s="67">
-        <v>1.6230279999999999</v>
+        <v>1.62304</v>
       </c>
       <c r="F75" s="68">
-        <v>1.267083</v>
+        <v>1.2670920000000001</v>
       </c>
       <c r="G75" s="66">
-        <v>8.5121780000000005</v>
+        <v>8.5122389999999992</v>
       </c>
       <c r="H75" s="67">
-        <v>14.818566000000001</v>
+        <v>14.818673</v>
       </c>
       <c r="I75" s="67">
-        <v>2.9955669999999999</v>
+        <v>2.9955880000000001</v>
       </c>
       <c r="J75" s="67">
-        <v>9.6389230000000001</v>
+        <v>9.638992</v>
       </c>
       <c r="K75" s="67">
         <v>4.2509999999999996E-3</v>
       </c>
       <c r="L75" s="67">
-        <v>0.687307</v>
+        <v>0.68731200000000003</v>
       </c>
       <c r="M75" s="67">
-        <v>1.6020319999999999</v>
+        <v>1.6020430000000001</v>
       </c>
       <c r="N75" s="67">
-        <v>0.61256500000000003</v>
+        <v>0.61256900000000003</v>
       </c>
       <c r="O75" s="68">
-        <v>5.2389340000000004</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.2389720000000004</v>
+      </c>
+      <c r="P75" s="68">
+        <v>5.8491819999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C76" s="70">
-        <v>4.1711840000000002</v>
+        <v>4.1411959999999999</v>
       </c>
       <c r="D76" s="71">
-        <v>3.9045999999999997E-2</v>
+        <v>3.6606E-2</v>
       </c>
       <c r="E76" s="71">
-        <v>2.193784</v>
+        <v>2.1927460000000001</v>
       </c>
       <c r="F76" s="72">
-        <v>1.9383539999999999</v>
+        <v>1.9118440000000001</v>
       </c>
       <c r="G76" s="70">
-        <v>17.191811000000001</v>
+        <v>17.188148999999999</v>
       </c>
       <c r="H76" s="71">
-        <v>11.604986</v>
+        <v>11.604984999999999</v>
       </c>
       <c r="I76" s="71">
-        <v>3.2512479999999999</v>
+        <v>3.245053</v>
       </c>
       <c r="J76" s="71">
-        <v>0.83331999999999995</v>
+        <v>0.82474400000000003</v>
       </c>
       <c r="K76" s="71">
-        <v>0.151591</v>
+        <v>0.150228</v>
       </c>
       <c r="L76" s="71">
-        <v>0.29620999999999997</v>
+        <v>0.279109</v>
       </c>
       <c r="M76" s="71">
-        <v>2.4611010000000002</v>
+        <v>2.4466519999999998</v>
       </c>
       <c r="N76" s="71">
-        <v>0.45150499999999999</v>
+        <v>0.44483400000000001</v>
       </c>
       <c r="O76" s="72">
-        <v>10.881492</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.881491</v>
+      </c>
+      <c r="P76" s="72">
+        <v>11.308128999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77" s="59">
-        <v>9.3743309999999997</v>
+        <v>9.364547</v>
       </c>
       <c r="D77" s="60">
-        <v>1.9127000000000002E-2</v>
+        <v>1.9103999999999999E-2</v>
       </c>
       <c r="E77" s="60">
-        <v>4.9838149999999999</v>
+        <v>4.9786070000000002</v>
       </c>
       <c r="F77" s="61">
-        <v>4.3735819999999999</v>
+        <v>4.3690230000000003</v>
       </c>
       <c r="G77" s="59">
-        <v>15.439289</v>
+        <v>15.422786</v>
       </c>
       <c r="H77" s="60">
-        <v>0.69243600000000005</v>
+        <v>0.691693</v>
       </c>
       <c r="I77" s="60">
-        <v>5.0853029999999997</v>
+        <v>5.0798680000000003</v>
       </c>
       <c r="J77" s="60">
-        <v>0.87002900000000005</v>
+        <v>0.86911799999999995</v>
       </c>
       <c r="K77" s="60">
-        <v>0.52394600000000002</v>
+        <v>0.523397</v>
       </c>
       <c r="L77" s="60">
-        <v>4.0969999999999999E-2</v>
+        <v>4.0926999999999998E-2</v>
       </c>
       <c r="M77" s="60">
-        <v>1.4993529999999999</v>
+        <v>1.4978199999999999</v>
       </c>
       <c r="N77" s="60">
-        <v>0.17369399999999999</v>
+        <v>0.173509</v>
       </c>
       <c r="O77" s="61">
-        <v>2.895664</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.892557</v>
+      </c>
+      <c r="P77" s="61">
+        <v>3.0656129999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C78" s="59">
-        <v>10.491284</v>
+        <v>10.491299</v>
       </c>
       <c r="D78" s="60">
         <v>9.2510000000000005E-3</v>
       </c>
       <c r="E78" s="60">
-        <v>8.0044249999999995</v>
+        <v>8.0044369999999994</v>
       </c>
       <c r="F78" s="61">
-        <v>2.4837039999999999</v>
+        <v>2.483708</v>
       </c>
       <c r="G78" s="59">
-        <v>18.384491000000001</v>
+        <v>18.384518</v>
       </c>
       <c r="H78" s="60">
-        <v>5.8052299999999999</v>
+        <v>5.8052390000000003</v>
       </c>
       <c r="I78" s="60">
-        <v>4.491276</v>
+        <v>4.491282</v>
       </c>
       <c r="J78" s="60">
         <v>2.9145000000000001E-2</v>
@@ -5058,307 +5285,328 @@
         <v>1.4049000000000001E-2</v>
       </c>
       <c r="M78" s="60">
-        <v>0.75008799999999998</v>
+        <v>0.75008900000000001</v>
       </c>
       <c r="N78" s="60">
         <v>6.8527000000000005E-2</v>
       </c>
       <c r="O78" s="61">
-        <v>9.4117820000000005</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.4117920000000002</v>
+      </c>
+      <c r="P78" s="61">
+        <v>9.4803519999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C79" s="63">
-        <v>12.954060999999999</v>
+        <v>12.940695</v>
       </c>
       <c r="D79" s="64">
-        <v>1.2160000000000001E-3</v>
+        <v>1.2149999999999999E-3</v>
       </c>
       <c r="E79" s="64">
-        <v>8.6402950000000001</v>
+        <v>8.6313800000000001</v>
       </c>
       <c r="F79" s="65">
-        <v>4.3128820000000001</v>
+        <v>4.3084319999999998</v>
       </c>
       <c r="G79" s="63">
-        <v>18.153699</v>
+        <v>18.134969000000002</v>
       </c>
       <c r="H79" s="64">
-        <v>4.5159649999999996</v>
+        <v>4.5113060000000003</v>
       </c>
       <c r="I79" s="64">
-        <v>4.344411</v>
+        <v>4.3399289999999997</v>
       </c>
       <c r="J79" s="64">
-        <v>0.17245199999999999</v>
+        <v>0.17227400000000001</v>
       </c>
       <c r="K79" s="64">
-        <v>9.0295E-2</v>
+        <v>9.0202000000000004E-2</v>
       </c>
       <c r="L79" s="64">
-        <v>7.8279999999999999E-3</v>
+        <v>7.8189999999999996E-3</v>
       </c>
       <c r="M79" s="64">
-        <v>0.92860500000000001</v>
+        <v>0.927647</v>
       </c>
       <c r="N79" s="64">
-        <v>8.0630999999999994E-2</v>
+        <v>8.0547999999999995E-2</v>
       </c>
       <c r="O79" s="65">
-        <v>7.8708590000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.8623060000000002</v>
+      </c>
+      <c r="P79" s="65">
+        <v>7.9443289999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C80" s="70">
-        <v>4.8176100000000002</v>
+        <v>4.8192550000000001</v>
       </c>
       <c r="D80" s="71">
-        <v>0.12762499999999999</v>
+        <v>0.127668</v>
       </c>
       <c r="E80" s="71">
-        <v>2.7060469999999999</v>
+        <v>2.7069700000000001</v>
       </c>
       <c r="F80" s="72">
-        <v>1.9839389999999999</v>
+        <v>1.9846159999999999</v>
       </c>
       <c r="G80" s="70">
-        <v>8.8246479999999998</v>
+        <v>8.8276839999999996</v>
       </c>
       <c r="H80" s="71">
-        <v>14.796843000000001</v>
+        <v>14.796878</v>
       </c>
       <c r="I80" s="71">
-        <v>3.1669990000000001</v>
+        <v>3.168088</v>
       </c>
       <c r="J80" s="71">
-        <v>7.3815150000000003</v>
+        <v>7.3840339999999998</v>
       </c>
       <c r="K80" s="71">
-        <v>7.7089999999999997E-3</v>
+        <v>7.7120000000000001E-3</v>
       </c>
       <c r="L80" s="71">
-        <v>0.55801599999999996</v>
+        <v>0.55820700000000001</v>
       </c>
       <c r="M80" s="71">
-        <v>3.1358030000000001</v>
+        <v>3.136873</v>
       </c>
       <c r="N80" s="71">
-        <v>0.49937500000000001</v>
+        <v>0.49954599999999999</v>
       </c>
       <c r="O80" s="72">
-        <v>6.5637590000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6.5637740000000004</v>
+      </c>
+      <c r="P80" s="72">
+        <v>6.9997360000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C81" s="59">
-        <v>7.1872210000000001</v>
+        <v>7.0879729999999999</v>
       </c>
       <c r="D81" s="60">
-        <v>2.2416999999999999E-2</v>
+        <v>2.1876E-2</v>
       </c>
       <c r="E81" s="60">
-        <v>4.7938200000000002</v>
+        <v>4.7276129999999998</v>
       </c>
       <c r="F81" s="61">
-        <v>2.380782</v>
+        <v>2.3479139999999998</v>
       </c>
       <c r="G81" s="59">
-        <v>13.790338999999999</v>
+        <v>13.573366999999999</v>
       </c>
       <c r="H81" s="60">
-        <v>12.763506</v>
+        <v>12.664057</v>
       </c>
       <c r="I81" s="60">
-        <v>4.4936569999999998</v>
+        <v>4.421716</v>
       </c>
       <c r="J81" s="60">
-        <v>4.1768070000000002</v>
+        <v>4.1188000000000002</v>
       </c>
       <c r="K81" s="60">
-        <v>0.56875600000000004</v>
+        <v>0.56085799999999997</v>
       </c>
       <c r="L81" s="60">
-        <v>9.3769999999999999E-3</v>
+        <v>9.2479999999999993E-3</v>
       </c>
       <c r="M81" s="60">
-        <v>5.3155200000000002</v>
+        <v>5.2417189999999998</v>
       </c>
       <c r="N81" s="60">
-        <v>0.25355100000000003</v>
+        <v>0.24956200000000001</v>
       </c>
       <c r="O81" s="61">
-        <v>8.2439</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.1796659999999992</v>
+      </c>
+      <c r="P81" s="61">
+        <v>8.3945469999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C82" s="59">
-        <v>4.8405250000000004</v>
+        <v>4.5064739999999999</v>
       </c>
       <c r="D82" s="60">
-        <v>0.51242100000000002</v>
+        <v>0.47705799999999998</v>
       </c>
       <c r="E82" s="60">
-        <v>1.932428</v>
+        <v>1.7990679999999999</v>
       </c>
       <c r="F82" s="61">
-        <v>2.3956770000000001</v>
+        <v>2.2303480000000002</v>
       </c>
       <c r="G82" s="59">
-        <v>9.2706160000000004</v>
+        <v>8.6308380000000007</v>
       </c>
       <c r="H82" s="60">
-        <v>9.6753160000000005</v>
+        <v>8.9885809999999999</v>
       </c>
       <c r="I82" s="60">
-        <v>3.5657489999999998</v>
+        <v>3.319671</v>
       </c>
       <c r="J82" s="60">
-        <v>1.034489</v>
+        <v>0.96309699999999998</v>
       </c>
       <c r="K82" s="60">
-        <v>0.52200599999999997</v>
+        <v>0.48598200000000003</v>
       </c>
       <c r="L82" s="60">
-        <v>1.09277</v>
+        <v>1.0173559999999999</v>
       </c>
       <c r="M82" s="60">
-        <v>2.1394869999999999</v>
+        <v>1.991838</v>
       </c>
       <c r="N82" s="60">
-        <v>1.0974090000000001</v>
+        <v>1.021641</v>
       </c>
       <c r="O82" s="61">
-        <v>7.40184</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.8762309999999998</v>
+      </c>
+      <c r="P82" s="61">
+        <v>7.8639919999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C83" s="63">
-        <v>9.3791180000000001</v>
+        <v>9.3720130000000008</v>
       </c>
       <c r="D83" s="64">
-        <v>1.7638000000000001E-2</v>
+        <v>1.7416999999999998E-2</v>
       </c>
       <c r="E83" s="64">
-        <v>5.8730190000000002</v>
+        <v>5.869942</v>
       </c>
       <c r="F83" s="65">
-        <v>3.491139</v>
+        <v>3.487304</v>
       </c>
       <c r="G83" s="63">
-        <v>18.647915000000001</v>
+        <v>18.636005999999998</v>
       </c>
       <c r="H83" s="64">
-        <v>8.9409779999999994</v>
+        <v>8.9352830000000001</v>
       </c>
       <c r="I83" s="64">
-        <v>3.5525380000000002</v>
+        <v>3.5498910000000001</v>
       </c>
       <c r="J83" s="64">
-        <v>0.29704199999999997</v>
+        <v>0.29613200000000001</v>
       </c>
       <c r="K83" s="64">
-        <v>0.14240900000000001</v>
+        <v>0.14221200000000001</v>
       </c>
       <c r="L83" s="64">
-        <v>4.8811E-2</v>
+        <v>4.7454999999999997E-2</v>
       </c>
       <c r="M83" s="64">
-        <v>1.7615529999999999</v>
+        <v>1.759182</v>
       </c>
       <c r="N83" s="64">
-        <v>0.33160699999999999</v>
+        <v>0.33089099999999999</v>
       </c>
       <c r="O83" s="65">
-        <v>10.16061</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.153938999999999</v>
+      </c>
+      <c r="P83" s="65">
+        <v>10.489464999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C84" s="70">
-        <v>4.8667259999999999</v>
+        <v>4.8383599999999998</v>
       </c>
       <c r="D84" s="71">
-        <v>1.501339</v>
+        <v>1.492588</v>
       </c>
       <c r="E84" s="71">
-        <v>1.2909619999999999</v>
+        <v>1.2834369999999999</v>
       </c>
       <c r="F84" s="72">
-        <v>2.0744259999999999</v>
+        <v>2.062335</v>
       </c>
       <c r="G84" s="70">
-        <v>7.1145620000000003</v>
+        <v>7.072673</v>
       </c>
       <c r="H84" s="71">
-        <v>10.816898</v>
+        <v>10.735312</v>
       </c>
       <c r="I84" s="71">
-        <v>2.4646659999999998</v>
+        <v>2.4501550000000001</v>
       </c>
       <c r="J84" s="71">
-        <v>0.37013099999999999</v>
+        <v>0.36797400000000002</v>
       </c>
       <c r="K84" s="71">
-        <v>1.653049</v>
+        <v>1.6434139999999999</v>
       </c>
       <c r="L84" s="71">
-        <v>3.9743490000000001</v>
+        <v>3.951184</v>
       </c>
       <c r="M84" s="71">
-        <v>1.2571889999999999</v>
+        <v>1.249862</v>
       </c>
       <c r="N84" s="71">
-        <v>1.6453009999999999</v>
+        <v>1.6356139999999999</v>
       </c>
       <c r="O84" s="72">
-        <v>4.5099030000000004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.4758880000000003</v>
+      </c>
+      <c r="P84" s="72">
+        <v>5.913106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C85" s="59">
-        <v>11.897059</v>
+        <v>11.896705000000001</v>
       </c>
       <c r="D85" s="60">
-        <v>2.0545260000000001</v>
+        <v>2.0544820000000001</v>
       </c>
       <c r="E85" s="60">
-        <v>0.88910800000000001</v>
+        <v>0.88907899999999995</v>
       </c>
       <c r="F85" s="61">
-        <v>8.9534249999999993</v>
+        <v>8.953144</v>
       </c>
       <c r="G85" s="59">
         <v>8.4279840000000004</v>
       </c>
       <c r="H85" s="60" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I85" s="60">
         <v>2.6198090000000001</v>
@@ -5379,127 +5627,136 @@
         <v>2.1602920000000001</v>
       </c>
       <c r="O85" s="61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P85" s="61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C86" s="59">
-        <v>4.1052629999999999</v>
+        <v>3.7389030000000001</v>
       </c>
       <c r="D86" s="60">
-        <v>0.34217399999999998</v>
+        <v>0.31163800000000003</v>
       </c>
       <c r="E86" s="60">
-        <v>1.4026890000000001</v>
+        <v>1.2775110000000001</v>
       </c>
       <c r="F86" s="61">
-        <v>2.3603999999999998</v>
+        <v>2.1497540000000002</v>
       </c>
       <c r="G86" s="59">
-        <v>8.5559609999999999</v>
+        <v>7.7924150000000001</v>
       </c>
       <c r="H86" s="60">
-        <v>11.147745</v>
+        <v>10.140605000000001</v>
       </c>
       <c r="I86" s="60">
-        <v>3.253825</v>
+        <v>2.9634490000000002</v>
       </c>
       <c r="J86" s="60">
-        <v>1.8969419999999999</v>
+        <v>1.727657</v>
       </c>
       <c r="K86" s="60">
-        <v>0.23824799999999999</v>
+        <v>0.21698700000000001</v>
       </c>
       <c r="L86" s="60">
-        <v>0.47623100000000002</v>
+        <v>0.43373200000000001</v>
       </c>
       <c r="M86" s="60">
-        <v>1.858028</v>
+        <v>1.692215</v>
       </c>
       <c r="N86" s="60">
-        <v>1.1108499999999999</v>
+        <v>1.0117160000000001</v>
       </c>
       <c r="O86" s="61">
-        <v>8.7767499999999998</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.9838170000000002</v>
+      </c>
+      <c r="P86" s="61">
+        <v>8.9944950000000006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C87" s="59">
-        <v>3.683163</v>
+        <v>3.6658200000000001</v>
       </c>
       <c r="D87" s="60">
-        <v>7.8923999999999994E-2</v>
+        <v>7.7632999999999994E-2</v>
       </c>
       <c r="E87" s="60">
-        <v>1.3709370000000001</v>
+        <v>1.3690960000000001</v>
       </c>
       <c r="F87" s="61">
-        <v>2.2333020000000001</v>
+        <v>2.21909</v>
       </c>
       <c r="G87" s="59">
-        <v>10.131976</v>
+        <v>10.119676</v>
       </c>
       <c r="H87" s="60">
-        <v>17.630661</v>
+        <v>17.630220999999999</v>
       </c>
       <c r="I87" s="60">
-        <v>2.8786049999999999</v>
+        <v>2.874533</v>
       </c>
       <c r="J87" s="60">
-        <v>0.35894599999999999</v>
+        <v>0.35356799999999999</v>
       </c>
       <c r="K87" s="60">
-        <v>0.39489600000000002</v>
+        <v>0.39450200000000002</v>
       </c>
       <c r="L87" s="60">
-        <v>0.198241</v>
+        <v>0.18873799999999999</v>
       </c>
       <c r="M87" s="60">
-        <v>3.1970179999999999</v>
+        <v>3.1901299999999999</v>
       </c>
       <c r="N87" s="60">
-        <v>1.133823</v>
+        <v>1.131141</v>
       </c>
       <c r="O87" s="61">
-        <v>15.313821000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15.313288999999999</v>
+      </c>
+      <c r="P87" s="61">
+        <v>16.450807000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C88" s="59">
-        <v>7.3628729999999996</v>
+        <v>7.3628840000000002</v>
       </c>
       <c r="D88" s="60">
         <v>9.8885000000000001E-2</v>
       </c>
       <c r="E88" s="60">
-        <v>4.6564139999999998</v>
+        <v>4.6564209999999999</v>
       </c>
       <c r="F88" s="61">
-        <v>2.6075740000000001</v>
+        <v>2.6075780000000002</v>
       </c>
       <c r="G88" s="59">
-        <v>12.485986</v>
+        <v>12.486003999999999</v>
       </c>
       <c r="H88" s="60">
-        <v>5.4872519999999998</v>
+        <v>5.4872610000000002</v>
       </c>
       <c r="I88" s="60">
-        <v>4.904655</v>
+        <v>4.9046630000000002</v>
       </c>
       <c r="J88" s="60">
-        <v>3.3019129999999999</v>
+        <v>3.3019180000000001</v>
       </c>
       <c r="K88" s="60">
         <v>0.50815100000000002</v>
@@ -5508,466 +5765,499 @@
         <v>0.11944</v>
       </c>
       <c r="M88" s="60">
-        <v>4.4407829999999997</v>
+        <v>4.4407889999999997</v>
       </c>
       <c r="N88" s="60">
         <v>0.379944</v>
       </c>
       <c r="O88" s="61">
-        <v>1.9087000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.908703</v>
+      </c>
+      <c r="P88" s="61">
+        <v>2.2886289999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C89" s="59">
-        <v>5.9144030000000001</v>
+        <v>5.8984920000000001</v>
       </c>
       <c r="D89" s="60">
-        <v>5.7000000000000002E-3</v>
+        <v>5.6880000000000003E-3</v>
       </c>
       <c r="E89" s="60">
-        <v>3.2664490000000002</v>
+        <v>3.2576589999999999</v>
       </c>
       <c r="F89" s="61">
-        <v>2.6427350000000001</v>
+        <v>2.6356290000000002</v>
       </c>
       <c r="G89" s="59">
-        <v>21.987002</v>
+        <v>21.920290999999999</v>
       </c>
       <c r="H89" s="60">
-        <v>12.143084</v>
+        <v>12.128893</v>
       </c>
       <c r="I89" s="60">
-        <v>2.807566</v>
+        <v>2.7990309999999998</v>
       </c>
       <c r="J89" s="60">
-        <v>0.76543099999999997</v>
+        <v>0.76337500000000003</v>
       </c>
       <c r="K89" s="60">
-        <v>0.21061099999999999</v>
+        <v>0.21004600000000001</v>
       </c>
       <c r="L89" s="60">
-        <v>4.4019000000000003E-2</v>
+        <v>4.3900000000000002E-2</v>
       </c>
       <c r="M89" s="60">
-        <v>2.886825</v>
+        <v>2.87906</v>
       </c>
       <c r="N89" s="60">
-        <v>0.397864</v>
+        <v>0.39665699999999998</v>
       </c>
       <c r="O89" s="61">
-        <v>11.068141000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>11.055159</v>
+      </c>
+      <c r="P89" s="61">
+        <v>11.4506</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C90" s="63">
-        <v>12.757854999999999</v>
+        <v>12.738965</v>
       </c>
       <c r="D90" s="64">
-        <v>2E-3</v>
+        <v>1.9959999999999999E-3</v>
       </c>
       <c r="E90" s="64">
-        <v>8.5796259999999993</v>
+        <v>8.5669229999999992</v>
       </c>
       <c r="F90" s="65">
-        <v>4.1767890000000003</v>
+        <v>4.1706050000000001</v>
       </c>
       <c r="G90" s="63">
-        <v>17.607388</v>
+        <v>17.581074999999998</v>
       </c>
       <c r="H90" s="64">
-        <v>5.2147170000000003</v>
+        <v>5.2079319999999996</v>
       </c>
       <c r="I90" s="64">
-        <v>4.3710209999999998</v>
+        <v>4.3645319999999996</v>
       </c>
       <c r="J90" s="64">
-        <v>0.57450800000000002</v>
+        <v>0.573658</v>
       </c>
       <c r="K90" s="64">
-        <v>0.10406799999999999</v>
+        <v>0.103905</v>
       </c>
       <c r="L90" s="64">
-        <v>8.6610000000000003E-3</v>
+        <v>8.6470000000000002E-3</v>
       </c>
       <c r="M90" s="64">
-        <v>1.189333</v>
+        <v>1.187484</v>
       </c>
       <c r="N90" s="64">
-        <v>8.2572000000000007E-2</v>
+        <v>8.2448999999999995E-2</v>
       </c>
       <c r="O90" s="65">
-        <v>8.0048469999999998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>7.9938950000000002</v>
+      </c>
+      <c r="P90" s="65">
+        <v>8.074821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C91" s="70">
-        <v>4.1401649999999997</v>
+        <v>4.1289439999999997</v>
       </c>
       <c r="D91" s="71">
-        <v>1.176579</v>
+        <v>1.1733899999999999</v>
       </c>
       <c r="E91" s="71">
-        <v>1.289393</v>
+        <v>1.285898</v>
       </c>
       <c r="F91" s="72">
-        <v>1.674194</v>
+        <v>1.669656</v>
       </c>
       <c r="G91" s="70">
-        <v>8.2104189999999999</v>
+        <v>8.1880600000000001</v>
       </c>
       <c r="H91" s="71">
-        <v>15.815002</v>
+        <v>15.764312</v>
       </c>
       <c r="I91" s="71">
-        <v>2.917176</v>
+        <v>2.9092319999999998</v>
       </c>
       <c r="J91" s="71">
-        <v>1.8248169999999999</v>
+        <v>1.819871</v>
       </c>
       <c r="K91" s="71">
-        <v>1.0817909999999999</v>
+        <v>1.0788580000000001</v>
       </c>
       <c r="L91" s="71">
-        <v>3.0199340000000001</v>
+        <v>3.0117479999999999</v>
       </c>
       <c r="M91" s="71">
-        <v>1.248996</v>
+        <v>1.2456100000000001</v>
       </c>
       <c r="N91" s="71">
-        <v>1.3026230000000001</v>
+        <v>1.2990759999999999</v>
       </c>
       <c r="O91" s="72">
-        <v>10.142134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10.109627</v>
+      </c>
+      <c r="P91" s="72">
+        <v>11.297625999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C92" s="59">
-        <v>3.9736310000000001</v>
+        <v>3.8336399999999999</v>
       </c>
       <c r="D92" s="60">
-        <v>0.39550000000000002</v>
+        <v>0.38862400000000002</v>
       </c>
       <c r="E92" s="60">
-        <v>0.68662900000000004</v>
+        <v>0.66361599999999998</v>
       </c>
       <c r="F92" s="61">
-        <v>2.8915009999999999</v>
+        <v>2.781399</v>
       </c>
       <c r="G92" s="59">
-        <v>3.714394</v>
+        <v>3.5284970000000002</v>
       </c>
       <c r="H92" s="60">
-        <v>32.768549999999998</v>
+        <v>32.768546999999998</v>
       </c>
       <c r="I92" s="60">
-        <v>1.7047190000000001</v>
+        <v>1.6560170000000001</v>
       </c>
       <c r="J92" s="60">
-        <v>0.64060399999999995</v>
+        <v>0.59755000000000003</v>
       </c>
       <c r="K92" s="60">
-        <v>5.7262E-2</v>
+        <v>4.9620999999999998E-2</v>
       </c>
       <c r="L92" s="60">
-        <v>0.55833699999999997</v>
+        <v>0.48055500000000001</v>
       </c>
       <c r="M92" s="60">
-        <v>1.5834140000000001</v>
+        <v>1.5039499999999999</v>
       </c>
       <c r="N92" s="60">
-        <v>0.91144199999999997</v>
+        <v>0.88557200000000003</v>
       </c>
       <c r="O92" s="61">
-        <v>31.659717000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31.659714000000001</v>
+      </c>
+      <c r="P92" s="61">
+        <v>32.458500000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C93" s="59">
-        <v>6.451708</v>
+        <v>6.4520580000000001</v>
       </c>
       <c r="D93" s="60">
-        <v>0.43048799999999998</v>
+        <v>0.43051200000000001</v>
       </c>
       <c r="E93" s="60">
-        <v>2.9065449999999999</v>
+        <v>2.9067029999999998</v>
       </c>
       <c r="F93" s="61">
-        <v>3.1146739999999999</v>
+        <v>3.114843</v>
       </c>
       <c r="G93" s="59">
-        <v>10.880179999999999</v>
+        <v>10.880770999999999</v>
       </c>
       <c r="H93" s="60">
-        <v>-1.939872</v>
+        <v>-1.93998</v>
       </c>
       <c r="I93" s="60">
-        <v>4.2226160000000004</v>
+        <v>4.2228459999999997</v>
       </c>
       <c r="J93" s="60">
-        <v>2.6341E-2</v>
+        <v>2.6342999999999998E-2</v>
       </c>
       <c r="K93" s="60">
         <v>0</v>
       </c>
       <c r="L93" s="60">
-        <v>1.2502070000000001</v>
+        <v>1.250275</v>
       </c>
       <c r="M93" s="60">
-        <v>1.2769919999999999</v>
+        <v>1.277061</v>
       </c>
       <c r="N93" s="60">
-        <v>0.46333000000000002</v>
+        <v>0.46335799999999999</v>
       </c>
       <c r="O93" s="61">
-        <v>-0.481906</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-0.481935</v>
+      </c>
+      <c r="P93" s="61">
+        <v>-0.22880800000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C94" s="59">
-        <v>5.5057720000000003</v>
+        <v>5.4948509999999997</v>
       </c>
       <c r="D94" s="60">
-        <v>0.108641</v>
+        <v>0.10843</v>
       </c>
       <c r="E94" s="60">
-        <v>3.3338160000000001</v>
+        <v>3.3272040000000001</v>
       </c>
       <c r="F94" s="61">
-        <v>2.0633149999999998</v>
+        <v>2.059218</v>
       </c>
       <c r="G94" s="59">
-        <v>14.082660000000001</v>
+        <v>14.054727</v>
       </c>
       <c r="H94" s="60">
-        <v>18.637053999999999</v>
+        <v>18.592427000000001</v>
       </c>
       <c r="I94" s="60">
-        <v>2.7223299999999999</v>
+        <v>2.7169620000000001</v>
       </c>
       <c r="J94" s="60">
-        <v>0.71668699999999996</v>
+        <v>0.71529100000000001</v>
       </c>
       <c r="K94" s="60">
-        <v>0.25757099999999999</v>
+        <v>0.25706899999999999</v>
       </c>
       <c r="L94" s="60">
-        <v>0.190437</v>
+        <v>0.19006799999999999</v>
       </c>
       <c r="M94" s="60">
-        <v>0.99063999999999997</v>
+        <v>0.98868</v>
       </c>
       <c r="N94" s="60">
-        <v>0.26457999999999998</v>
+        <v>0.26405800000000001</v>
       </c>
       <c r="O94" s="61">
-        <v>19.596865000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+        <v>19.549804999999999</v>
+      </c>
+      <c r="P94" s="61">
+        <v>19.791426000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C95" s="59">
-        <v>4.9130750000000001</v>
+        <v>4.758718</v>
       </c>
       <c r="D95" s="60">
-        <v>1.6040540000000001</v>
+        <v>1.553658</v>
       </c>
       <c r="E95" s="60">
-        <v>1.6797519999999999</v>
+        <v>1.626978</v>
       </c>
       <c r="F95" s="61">
-        <v>1.62927</v>
+        <v>1.578082</v>
       </c>
       <c r="G95" s="59">
-        <v>9.275264</v>
+        <v>8.9808769999999996</v>
       </c>
       <c r="H95" s="60">
-        <v>14.316261000000001</v>
+        <v>13.773127000000001</v>
       </c>
       <c r="I95" s="60">
-        <v>3.3313269999999999</v>
+        <v>3.2255940000000001</v>
       </c>
       <c r="J95" s="60">
-        <v>0.30266500000000002</v>
+        <v>0.29315600000000003</v>
       </c>
       <c r="K95" s="60">
-        <v>1.038726</v>
+        <v>1.006092</v>
       </c>
       <c r="L95" s="60">
-        <v>4.0779430000000003</v>
+        <v>3.9498229999999999</v>
       </c>
       <c r="M95" s="60">
-        <v>1.0303180000000001</v>
+        <v>0.99794799999999995</v>
       </c>
       <c r="N95" s="60">
-        <v>1.30975</v>
+        <v>1.2681789999999999</v>
       </c>
       <c r="O95" s="61">
-        <v>10.015128000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.6351720000000007</v>
+      </c>
+      <c r="P95" s="61">
+        <v>10.774851</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C96" s="63">
-        <v>6.0309619999999997</v>
+        <v>6.083475</v>
       </c>
       <c r="D96" s="64">
-        <v>0.24130299999999999</v>
+        <v>0.243504</v>
       </c>
       <c r="E96" s="64">
-        <v>2.5833930000000001</v>
+        <v>2.6058849999999998</v>
       </c>
       <c r="F96" s="65">
-        <v>3.217114</v>
+        <v>3.2451279999999998</v>
       </c>
       <c r="G96" s="63">
-        <v>10.638692000000001</v>
+        <v>10.638691</v>
       </c>
       <c r="H96" s="64">
-        <v>15.093437</v>
+        <v>15.093417000000001</v>
       </c>
       <c r="I96" s="64">
-        <v>3.5920079999999999</v>
+        <v>3.5920019999999999</v>
       </c>
       <c r="J96" s="64">
-        <v>2.2139000000000002</v>
+        <v>2.2331789999999998</v>
       </c>
       <c r="K96" s="64">
-        <v>1.7549060000000001</v>
+        <v>1.7701880000000001</v>
       </c>
       <c r="L96" s="64">
-        <v>0.216368</v>
+        <v>0.21825</v>
       </c>
       <c r="M96" s="64">
-        <v>4.2948040000000001</v>
+        <v>4.3322010000000004</v>
       </c>
       <c r="N96" s="64">
-        <v>0.53034499999999996</v>
+        <v>0.53034400000000004</v>
       </c>
       <c r="O96" s="65">
-        <v>9.3916900000000005</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9.3916699999999995</v>
+      </c>
+      <c r="P96" s="65">
+        <v>9.8039649999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C97" s="70">
-        <v>3.9322050000000002</v>
+        <v>3.478224</v>
       </c>
       <c r="D97" s="71">
-        <v>0.79421699999999995</v>
+        <v>0.70252300000000001</v>
       </c>
       <c r="E97" s="71">
-        <v>1.1747669999999999</v>
+        <v>1.0391379999999999</v>
       </c>
       <c r="F97" s="72">
-        <v>1.9632210000000001</v>
+        <v>1.7365630000000001</v>
       </c>
       <c r="G97" s="70">
-        <v>9.4452680000000004</v>
+        <v>8.3524919999999998</v>
       </c>
       <c r="H97" s="71">
-        <v>13.916907</v>
+        <v>12.213198999999999</v>
       </c>
       <c r="I97" s="71">
-        <v>2.28817</v>
+        <v>2.0234390000000002</v>
       </c>
       <c r="J97" s="71">
-        <v>1.7112480000000001</v>
+        <v>1.5136799999999999</v>
       </c>
       <c r="K97" s="71">
-        <v>0.57673099999999999</v>
+        <v>0.51014599999999999</v>
       </c>
       <c r="L97" s="71">
-        <v>1.802521</v>
+        <v>1.5944160000000001</v>
       </c>
       <c r="M97" s="71">
-        <v>1.2087429999999999</v>
+        <v>1.069191</v>
       </c>
       <c r="N97" s="71">
-        <v>1.504977</v>
+        <v>1.3308580000000001</v>
       </c>
       <c r="O97" s="72">
-        <v>9.6299969999999995</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.4510930000000002</v>
+      </c>
+      <c r="P97" s="72">
+        <v>9.7478829999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C98" s="63">
-        <v>5.5146800000000002</v>
+        <v>5.3973829999999996</v>
       </c>
       <c r="D98" s="64">
-        <v>0.202325</v>
+        <v>0.19634799999999999</v>
       </c>
       <c r="E98" s="64">
-        <v>2.1044010000000002</v>
+        <v>2.0738530000000002</v>
       </c>
       <c r="F98" s="65">
-        <v>3.207954</v>
+        <v>3.127183</v>
       </c>
       <c r="G98" s="63">
-        <v>10.387943999999999</v>
+        <v>10.168436</v>
       </c>
       <c r="H98" s="64">
-        <v>18.408097000000001</v>
+        <v>18.408096</v>
       </c>
       <c r="I98" s="64">
-        <v>2.7342970000000002</v>
+        <v>2.6733150000000001</v>
       </c>
       <c r="J98" s="64">
-        <v>2.1792509999999998</v>
+        <v>2.1412079999999998</v>
       </c>
       <c r="K98" s="64">
-        <v>0.235737</v>
+        <v>0.23064799999999999</v>
       </c>
       <c r="L98" s="64">
-        <v>0.23658599999999999</v>
+        <v>0.205203</v>
       </c>
       <c r="M98" s="64">
-        <v>5.3561360000000002</v>
+        <v>5.2716969999999996</v>
       </c>
       <c r="N98" s="64">
-        <v>1.096476</v>
+        <v>1.068695</v>
       </c>
       <c r="O98" s="65">
         <v>15.560252</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98" s="65">
+        <v>16.87275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="67"/>
@@ -5983,10 +6273,11 @@
       <c r="M99" s="67"/>
       <c r="N99" s="67"/>
       <c r="O99" s="67"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99" s="67"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
@@ -6001,10 +6292,11 @@
       <c r="M100" s="76"/>
       <c r="N100" s="76"/>
       <c r="O100" s="76"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100" s="76"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C101" s="76"/>
       <c r="D101" s="76"/>
@@ -6019,10 +6311,11 @@
       <c r="M101" s="76"/>
       <c r="N101" s="76"/>
       <c r="O101" s="76"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101" s="76"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C102" s="76"/>
       <c r="D102" s="76"/>
@@ -6037,10 +6330,11 @@
       <c r="M102" s="76"/>
       <c r="N102" s="76"/>
       <c r="O102" s="76"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102" s="76"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C103" s="76"/>
       <c r="D103" s="76"/>
@@ -6055,10 +6349,11 @@
       <c r="M103" s="76"/>
       <c r="N103" s="76"/>
       <c r="O103" s="76"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103" s="76"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C104" s="76"/>
       <c r="D104" s="76"/>
@@ -6073,10 +6368,11 @@
       <c r="M104" s="76"/>
       <c r="N104" s="76"/>
       <c r="O104" s="76"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104" s="76"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
@@ -6091,10 +6387,11 @@
       <c r="M105" s="76"/>
       <c r="N105" s="76"/>
       <c r="O105" s="76"/>
-    </row>
-    <row r="106" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P105" s="76"/>
+    </row>
+    <row r="106" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
@@ -6110,11 +6407,10 @@
       <c r="M106" s="76"/>
       <c r="N106" s="76"/>
       <c r="O106" s="76"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B107" s="78" t="s">
-        <v>174</v>
-      </c>
+      <c r="P106" s="76"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="B107" s="78"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -6128,8 +6424,9 @@
       <c r="M107" s="76"/>
       <c r="N107" s="76"/>
       <c r="O107" s="76"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107" s="76"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
@@ -6144,8 +6441,9 @@
       <c r="M108" s="76"/>
       <c r="N108" s="76"/>
       <c r="O108" s="76"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108" s="76"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="81" t="s">
         <v>176</v>
       </c>
@@ -6162,8 +6460,9 @@
       <c r="M109" s="76"/>
       <c r="N109" s="76"/>
       <c r="O109" s="76"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109" s="76"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="81" t="s">
         <v>177</v>
       </c>
@@ -6180,8 +6479,9 @@
       <c r="M110" s="76"/>
       <c r="N110" s="76"/>
       <c r="O110" s="76"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110" s="76"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B111" s="81" t="s">
         <v>178</v>
       </c>
@@ -6198,8 +6498,9 @@
       <c r="M111" s="76"/>
       <c r="N111" s="76"/>
       <c r="O111" s="76"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111" s="76"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>175</v>
       </c>
@@ -6216,8 +6517,9 @@
       <c r="M112" s="76"/>
       <c r="N112" s="76"/>
       <c r="O112" s="76"/>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P112" s="76"/>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="79"/>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
@@ -6232,15 +6534,16 @@
       <c r="M113" s="76"/>
       <c r="N113" s="76"/>
       <c r="O113" s="76"/>
+      <c r="P113" s="76"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{59E4EFCA-C8B1-4668-9394-06F0CCEA1BDD}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{290C135B-D76D-4D72-B214-B10283938D33}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{2011E7DB-24A2-4624-8503-0698EBB9FC66}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{8A522EB4-4FAC-454B-A5F1-9FDC29FF6A08}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{C0E59AB8-2B94-4432-83E1-7CBCCC13E47C}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{B54E6BBC-5E6F-47E6-8FC9-238592F83B2B}"/>
+    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2283BB42-A790-4A8A-B0DD-D9E22196FD43}"/>
+    <hyperlink ref="B109" r:id="rId2" xr:uid="{D0C8E6C2-41F9-4D19-9CBD-3AD23A591908}"/>
+    <hyperlink ref="B110" r:id="rId3" xr:uid="{4B5BC3F0-D7A6-4B5C-B67C-87F1672783D2}"/>
+    <hyperlink ref="B107" r:id="rId4" display="CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators." xr:uid="{C114F817-BE0B-44C3-A16D-B7D5F50327A0}"/>
+    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{CC509057-B884-48AE-9A98-39490B00EE38}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{8DF4C776-BF83-4F18-9B7D-F895BB38C80F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/DDAf_2025_Tableau_annexe_Tab22.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab22.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EC764C6-175F-4B56-AF99-341DF6C756DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E75E950-F1C8-4B2A-AFE0-D18488D379F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{F93D68ED-FE40-4377-A989-8F8C40D95B78}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{053CAF2C-91ED-4EC8-9AF0-F187F3748BA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab22" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab22'!$A$1:$F$103</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,63 +36,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="179">
-  <si>
-    <t>Table 22: Sustainable public investments and adjusted net savings</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
-  </si>
-  <si>
-    <t>Current health expenditure (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>External health expenditure (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Domestic general government health expenditure (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Domestic private health expenditure (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Adjusted savings: consumption of fixed capital (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Adjusted savings: net national savings (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Adjusted savings: education expenditure (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Adjusted savings: energy depletion (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Adjusted savings: mineral depletion (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Adjusted savings: net forest depletion (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Adjusted savings: carbon dioxide damage (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Adjusted savings: particulate emission damage (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Adjusted net savings, including particulate emission damage (% of GDP), 2020</t>
-  </si>
-  <si>
-    <t>Adjusted net savings, excluding particulate emission damage (% of GDP), 2020</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="181">
+  <si>
+    <t>Tableau 22 : Investissements publics durables et épargne nette ajustée</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Dépenses courantes de santé (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Dépenses externes de santé (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Dépenses de santé des administrations publiques nationales (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Dépenses nationales de santé privées par habitant (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : consommation de capital fixe (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : épargne nationale nette (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : dépenses d'éducation (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : épuisement énergétique (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : épuisement des ressources minérales (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : épuisement net des forêts (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : dommages causés par le dioxyde de carbone (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Épargne ajustée : dommages causés par les émissions de particules (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Épargne nette ajustée, y compris les dommages causés par les émissions de particules (% du PIB), 2020</t>
+  </si>
+  <si>
+    <t>Épargne nette ajustée, excluant les dommages causés par les émissions de particules (% du PIB), 2020</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -128,19 +131,19 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -149,7 +152,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -161,58 +167,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -224,13 +230,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -248,7 +254,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -266,79 +272,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -350,7 +356,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -362,7 +368,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -374,13 +380,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -410,7 +416,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -425,22 +431,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -449,19 +455,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -479,107 +485,112 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Adjusted net savings are calculated by taking net national savings (the difference of gross savings and consumption of fixed capital), adding education expenditure and subtracting energy depletion, mineral depletion, net forest depletion, carbon dioxide damage, and particulate emission damage.</t>
-  </si>
-  <si>
-    <t>In order to preserve the validity of the formula for adjusted net savings, aggregate figures for all the components of adjusted net savings do not take into account countries in which adjusted net savings is not reported.</t>
-  </si>
-  <si>
-    <t>Source: World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks - 03/07/2025), UNESCO Global Education Monitoring Report 2024/25.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>L'épargne nette ajustée est calculée en prenant l'épargne nationale nette (la différence entre l'épargne brute et la consommation de capital fixe), en ajoutant les dépenses d'éducation et en soustrayant l'épuisement énergétique, l'épuisement des minéraux, l'épuisement net des forêts, les dommages causés par le dioxyde de carbone et les dommages causés par les émissions de particules.</t>
+  </si>
+  <si>
+    <t>Afin de préserver la validité de la formule d'épargne nette ajustée, les chiffres agrégés pour toutes les composantes de l'épargne nette ajustée ne tiennent pas compte des pays dans lesquels l'épargne nette ajustée n'est pas déclarée.</t>
+  </si>
+  <si>
+    <t>Source : Indicateurs du développement mondial de la Banque mondiale (base de données et publications provenant des banques centrales, des agences nationales de statistiques et des bureaux-pays de la Banque mondiale – 03/07/2025), Rapport mondial de suivi sur l’éducation de l’UNESCO 2024/25.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,16 +722,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1175,8 +1176,8 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1459,17 +1460,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AD289D-50DA-4DB7-9BE3-9AFB53FD86FD}">
-  <dimension ref="A1:P113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5341D97-784D-42D5-B799-19CED1F2FD95}">
+  <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="14.453125" style="80" customWidth="1"/>
-    <col min="17" max="24" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="80" customWidth="1"/>
+    <col min="4" max="23" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1491,7 +1492,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2042,9 +2043,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="28">
         <v>7.0534679999999996</v>
@@ -2091,10 +2094,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="21">
         <v>10.707801</v>
@@ -2141,10 +2144,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="21">
         <v>4.2443799999999996</v>
@@ -2191,10 +2194,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="21">
         <v>8.6425769999999993</v>
@@ -2241,10 +2244,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="32">
         <v>4.3876660000000003</v>
@@ -2291,10 +2294,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="32">
         <v>4.0119470000000002</v>
@@ -2341,10 +2344,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="15">
         <v>3.801634</v>
@@ -2391,10 +2394,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="32">
         <v>3.9900509999999998</v>
@@ -2441,10 +2444,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="32">
         <v>3.4060839999999999</v>
@@ -2491,10 +2494,10 @@
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="36">
         <v>7.3070199999999996</v>
@@ -2540,9 +2543,11 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="28">
         <v>4.2608069999999998</v>
@@ -2589,10 +2594,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="40">
         <v>5.9071550000000004</v>
@@ -2639,10 +2644,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="21">
         <v>2.3525770000000001</v>
@@ -2689,10 +2694,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>27</v>
@@ -2739,10 +2744,10 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="21">
         <v>3.4809730000000001</v>
@@ -2789,10 +2794,10 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="21">
         <v>4.4803249999999997</v>
@@ -2839,10 +2844,10 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="21">
         <v>3.7231610000000002</v>
@@ -2889,10 +2894,10 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="21">
         <v>6.0960609999999997</v>
@@ -2939,10 +2944,10 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="21">
         <v>7.4860709999999999</v>
@@ -2989,10 +2994,10 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="21">
         <v>6.025563</v>
@@ -3039,10 +3044,10 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="21">
         <v>2.3975420000000001</v>
@@ -3089,10 +3094,10 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="32">
         <v>9.3178079999999994</v>
@@ -3139,10 +3144,10 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="21">
         <v>2.9441449999999998</v>
@@ -3189,10 +3194,10 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="21">
         <v>3.0519720000000001</v>
@@ -3239,10 +3244,10 @@
     </row>
     <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="23">
         <v>5.2489660000000002</v>
@@ -3288,9 +3293,11 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="28">
         <v>3.9025590000000001</v>
@@ -3337,10 +3344,10 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="44">
         <v>5.641724</v>
@@ -3387,10 +3394,10 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="21">
         <v>4.239509</v>
@@ -3437,10 +3444,10 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="32">
         <v>7.100867</v>
@@ -3487,10 +3494,10 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="32">
         <v>2.9295879999999999</v>
@@ -3537,10 +3544,10 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="21">
         <v>5.5907879999999999</v>
@@ -3587,10 +3594,10 @@
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="36">
         <v>7.0575999999999999</v>
@@ -3636,9 +3643,11 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="28">
         <v>4.8774009999999999</v>
@@ -3685,10 +3694,10 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" s="40">
         <v>2.714534</v>
@@ -3735,10 +3744,10 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C47" s="21">
         <v>6.5369739999999998</v>
@@ -3785,10 +3794,10 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C48" s="32">
         <v>6.6234799999999998</v>
@@ -3835,10 +3844,10 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="21">
         <v>3.618045</v>
@@ -3885,10 +3894,10 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C50" s="21">
         <v>3.7339199999999999</v>
@@ -3935,10 +3944,10 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" s="15">
         <v>4.4353800000000003</v>
@@ -3985,10 +3994,10 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C52" s="21">
         <v>3.9009520000000002</v>
@@ -4035,10 +4044,10 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C53" s="21">
         <v>9.0163539999999998</v>
@@ -4085,10 +4094,10 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C54" s="21">
         <v>12.904173999999999</v>
@@ -4135,10 +4144,10 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" s="21">
         <v>3.501169</v>
@@ -4185,10 +4194,10 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C56" s="21">
         <v>6.1611630000000002</v>
@@ -4235,10 +4244,10 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C57" s="21">
         <v>2.4273750000000001</v>
@@ -4285,10 +4294,10 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C58" s="21">
         <v>5.143751</v>
@@ -4335,10 +4344,10 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C59" s="21">
         <v>5.6706510000000003</v>
@@ -4385,10 +4394,10 @@
     </row>
     <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C60" s="23">
         <v>6.1803439999999998</v>
@@ -4436,7 +4445,7 @@
     <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C61" s="28">
         <v>3.0852029999999999</v>
@@ -4484,7 +4493,7 @@
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" s="50">
         <v>4.5482630000000004</v>
@@ -4532,7 +4541,7 @@
     <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" s="50">
         <v>9.1810449999999992</v>
@@ -4580,7 +4589,7 @@
     <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" s="55">
         <v>8.3462399999999999</v>
@@ -4628,7 +4637,7 @@
     <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C65" s="59">
         <v>4.8132320000000002</v>
@@ -4676,7 +4685,7 @@
     <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" s="63">
         <v>8.9157410000000006</v>
@@ -4724,7 +4733,7 @@
     <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C67" s="59">
         <v>4.3883619999999999</v>
@@ -4772,7 +4781,7 @@
     <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C68" s="59">
         <v>3.8131059999999999</v>
@@ -4820,7 +4829,7 @@
     <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C69" s="59">
         <v>4.3898659999999996</v>
@@ -4868,7 +4877,7 @@
     <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C70" s="59">
         <v>3.8329759999999999</v>
@@ -4916,7 +4925,7 @@
     <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C71" s="59">
         <v>3.0852029999999999</v>
@@ -4964,7 +4973,7 @@
     <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C72" s="59">
         <v>3.8896630000000001</v>
@@ -5012,7 +5021,7 @@
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C73" s="59">
         <v>6.2888339999999996</v>
@@ -5060,7 +5069,7 @@
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C74" s="59">
         <v>5.8512050000000002</v>
@@ -5108,7 +5117,7 @@
     <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C75" s="66">
         <v>3.608949</v>
@@ -5156,7 +5165,7 @@
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C76" s="70">
         <v>4.1411959999999999</v>
@@ -5204,7 +5213,7 @@
     <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C77" s="59">
         <v>9.364547</v>
@@ -5252,7 +5261,7 @@
     <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C78" s="59">
         <v>10.491299</v>
@@ -5300,7 +5309,7 @@
     <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C79" s="63">
         <v>12.940695</v>
@@ -5348,7 +5357,7 @@
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C80" s="70">
         <v>4.8192550000000001</v>
@@ -5396,7 +5405,7 @@
     <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C81" s="59">
         <v>7.0879729999999999</v>
@@ -5444,7 +5453,7 @@
     <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C82" s="59">
         <v>4.5064739999999999</v>
@@ -5492,7 +5501,7 @@
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C83" s="63">
         <v>9.3720130000000008</v>
@@ -5540,7 +5549,7 @@
     <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C84" s="70">
         <v>4.8383599999999998</v>
@@ -5588,7 +5597,7 @@
     <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C85" s="59">
         <v>11.896705000000001</v>
@@ -5636,7 +5645,7 @@
     <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C86" s="59">
         <v>3.7389030000000001</v>
@@ -5684,7 +5693,7 @@
     <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C87" s="59">
         <v>3.6658200000000001</v>
@@ -5732,7 +5741,7 @@
     <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C88" s="59">
         <v>7.3628840000000002</v>
@@ -5780,7 +5789,7 @@
     <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C89" s="59">
         <v>5.8984920000000001</v>
@@ -5828,7 +5837,7 @@
     <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C90" s="63">
         <v>12.738965</v>
@@ -5876,7 +5885,7 @@
     <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C91" s="70">
         <v>4.1289439999999997</v>
@@ -5924,7 +5933,7 @@
     <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C92" s="59">
         <v>3.8336399999999999</v>
@@ -5972,7 +5981,7 @@
     <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" s="59">
         <v>6.4520580000000001</v>
@@ -6020,7 +6029,7 @@
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C94" s="59">
         <v>5.4948509999999997</v>
@@ -6068,7 +6077,7 @@
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C95" s="59">
         <v>4.758718</v>
@@ -6116,7 +6125,7 @@
     <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C96" s="63">
         <v>6.083475</v>
@@ -6164,7 +6173,7 @@
     <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C97" s="70">
         <v>3.478224</v>
@@ -6212,7 +6221,7 @@
     <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C98" s="63">
         <v>5.3973829999999996</v>
@@ -6277,7 +6286,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C100" s="76"/>
       <c r="D100" s="76"/>
@@ -6296,7 +6305,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C101" s="76"/>
       <c r="D101" s="76"/>
@@ -6315,7 +6324,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C102" s="76"/>
       <c r="D102" s="76"/>
@@ -6334,7 +6343,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C103" s="76"/>
       <c r="D103" s="76"/>
@@ -6353,7 +6362,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C104" s="76"/>
       <c r="D104" s="76"/>
@@ -6372,7 +6381,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C105" s="76"/>
       <c r="D105" s="76"/>
@@ -6391,7 +6400,7 @@
     </row>
     <row r="106" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B106" s="77"/>
       <c r="C106" s="76"/>
@@ -6409,8 +6418,8 @@
       <c r="O106" s="76"/>
       <c r="P106" s="76"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B107" s="78"/>
+    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="77"/>
       <c r="C107" s="76"/>
       <c r="D107" s="76"/>
       <c r="E107" s="76"/>
@@ -6427,7 +6436,9 @@
       <c r="P107" s="76"/>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="81" t="s">
+        <v>179</v>
+      </c>
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76"/>
@@ -6444,9 +6455,7 @@
       <c r="P108" s="76"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B109" s="81" t="s">
-        <v>176</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="76"/>
       <c r="D109" s="76"/>
       <c r="E109" s="76"/>
@@ -6463,8 +6472,8 @@
       <c r="P109" s="76"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B110" s="81" t="s">
-        <v>177</v>
+      <c r="B110" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="C110" s="76"/>
       <c r="D110" s="76"/>
@@ -6482,8 +6491,8 @@
       <c r="P110" s="76"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B111" s="81" t="s">
-        <v>178</v>
+      <c r="B111" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="C111" s="76"/>
       <c r="D111" s="76"/>
@@ -6501,8 +6510,8 @@
       <c r="P111" s="76"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>175</v>
+      <c r="B112" s="81" t="s">
+        <v>180</v>
       </c>
       <c r="C112" s="76"/>
       <c r="D112" s="76"/>
@@ -6520,7 +6529,9 @@
       <c r="P112" s="76"/>
     </row>
     <row r="113" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B113" s="79"/>
+      <c r="B113" s="81" t="s">
+        <v>178</v>
+      </c>
       <c r="C113" s="76"/>
       <c r="D113" s="76"/>
       <c r="E113" s="76"/>
@@ -6536,16 +6547,47 @@
       <c r="O113" s="76"/>
       <c r="P113" s="76"/>
     </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B114" s="78"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+      <c r="L114" s="76"/>
+      <c r="M114" s="76"/>
+      <c r="N114" s="76"/>
+      <c r="O114" s="76"/>
+      <c r="P114" s="76"/>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B115" s="78"/>
+      <c r="C115" s="79"/>
+      <c r="D115" s="79"/>
+      <c r="E115" s="79"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="79"/>
+      <c r="H115" s="79"/>
+      <c r="I115" s="79"/>
+      <c r="J115" s="79"/>
+      <c r="K115" s="79"/>
+      <c r="L115" s="79"/>
+      <c r="P115" s="79"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{2283BB42-A790-4A8A-B0DD-D9E22196FD43}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{D0C8E6C2-41F9-4D19-9CBD-3AD23A591908}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{4B5BC3F0-D7A6-4B5C-B67C-87F1672783D2}"/>
-    <hyperlink ref="B107" r:id="rId4" display="CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators." xr:uid="{C114F817-BE0B-44C3-A16D-B7D5F50327A0}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{CC509057-B884-48AE-9A98-39490B00EE38}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{8DF4C776-BF83-4F18-9B7D-F895BB38C80F}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{2017A8ED-9E2E-4986-BF1C-45D4B2F019A8}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{F4373F6D-5CFE-406B-89DE-EA11251750F4}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{DF8BE44C-028D-4D8C-8C32-07A6806E5A29}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{36A96DF4-2D0D-4A3B-AE88-A837F0A61184}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{AF376590-F263-4B47-814A-3767B572E0B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
